--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE9262CF-0D05-2E4F-8A4E-0AE1E65A6DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840F39D-E7ED-AC49-9E72-5F03920C1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18040" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">OP/BE </t>
   </si>
@@ -167,12 +167,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,6 +209,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A1A9-D695-FE44-A83C-2CC914D9B748}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -696,7 +705,7 @@
         <v>4.9972000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="17">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -709,10 +718,116 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="2">
+        <v>1.4690589999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.8855420000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-2.1193680000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.0159150000000001E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-1.5509370000000001E-3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>6.5862280000000007E-5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-8.3901789999999993E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="17">
       <c r="D7" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.1831</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.0521000000000003</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-5.3513999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9.7225000000000006E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-0.69652000000000003</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2.2035</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-0.35616999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.931198</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.2899253</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.1012839999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-1.458833</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-0.23935219999999999</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-9.8466360000000006E-3</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-1.3582930000000001E-4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-8.3901789999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17">
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-0.65076999999999996</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.8283</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-0.83413000000000004</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-0.81708000000000003</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1.3172999999999999</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2.2035</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-0.35616999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840F39D-E7ED-AC49-9E72-5F03920C1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089AEB25-01CC-3948-A1B7-1D46B501FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089AEB25-01CC-3948-A1B7-1D46B501FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF515D-C1A6-414F-A44B-911DA9A6E4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">OP/BE </t>
   </si>
@@ -83,47 +83,51 @@
     <t>Size</t>
   </si>
   <si>
-    <t>FFM</t>
+    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DESC</t>
+    <t>Profitability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>Investment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>Panel A: Five-Factor Model Variables</t>
+  </si>
+  <si>
+    <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Panel</t>
+    <t>Panel B: Six-Factor Model Variables</t>
+  </si>
+  <si>
+    <t>Panel C: Comparison Value Variables</t>
+  </si>
+  <si>
+    <t>Panel D: Comparison Profitability Variables</t>
+  </si>
+  <si>
+    <t>Panel E: Comparison Investment Variables</t>
+  </si>
+  <si>
+    <t>Panel F: Strongest EM Variables</t>
+  </si>
+  <si>
+    <t>Panel G: Strongest EM vs. Five-Factor Model Variables Model</t>
+  </si>
+  <si>
+    <t>Panel H: Only big stocks</t>
+  </si>
+  <si>
+    <t>Risk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
+    <t>Others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,23 +152,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
+      <name val="Helvetica Neue "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Helvetica Neue "/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF4D4D4C"/>
-      <name val="Monaco"/>
-      <family val="2"/>
+      <name val="Helvetica Neue "/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Helvetica Neue "/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,9 +199,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -195,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,13 +232,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -229,6 +313,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774403</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>778003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104847</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC52DA3-8F5C-EF88-D97D-51965EA87D91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2118240" y="1352880"/>
+            <a:ext cx="3600" cy="7200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC52DA3-8F5C-EF88-D97D-51965EA87D91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2109240" y="1344240"/>
+              <a:ext cx="21240" cy="24840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-01T13:29:18.766"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 20 8191,'5'-11'0,"0"3"0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,310 +709,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A1A9-D695-FE44-A83C-2CC914D9B748}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
+    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1">
+      <c r="B1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.4989129999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.4030039999999998E-2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="10">
+        <v>0.1867847</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5">
+        <v>-1.936533E-3</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="13">
+        <v>8.6285760000000004E-5</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="5">
+        <v>2.1692</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.48902000000000001</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="10">
+        <v>0.70270999999999995</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5">
+        <v>-0.95060999999999996</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5">
+        <v>2.6711999999999998</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" ht="17">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B7" s="6">
+        <v>1.4965630000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.476096E-2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11">
+        <v>0.1892991</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6">
+        <v>-2.2552570000000001E-3</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="14">
+        <v>7.3373709999999999E-5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>9.0034169999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
+      <c r="B8" s="6">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.51178000000000001</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6">
+        <v>-1.0721000000000001</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="P8" s="11">
+        <v>4.9972000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" ht="17">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B10" s="6">
+        <v>1.4690589999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.8855420000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-2.1193680000000001</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11">
+        <v>2.0159150000000001E-2</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6">
+        <v>-1.5509370000000001E-3</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="14">
+        <v>6.5862280000000007E-5</v>
+      </c>
+      <c r="P10" s="11">
+        <v>-8.3901789999999993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
+      <c r="B11" s="6">
+        <v>2.1831</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.0521000000000003</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-5.3513999999999999</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11">
+        <v>9.7225000000000006E-2</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6">
+        <v>-0.69652000000000003</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6">
+        <v>2.2035</v>
+      </c>
+      <c r="P11" s="11">
+        <v>-0.35616999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" ht="17">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B13" s="6">
+        <v>1.931198</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-0.2899253</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>1.1012839999999999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-1.458833</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11">
+        <v>-0.23935219999999999</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
+        <v>-9.8466360000000006E-3</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6">
+        <v>-1.3582930000000001E-4</v>
+      </c>
+      <c r="P13" s="11">
+        <v>-8.3901789999999993E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
+      <c r="B14" s="6">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-0.65076999999999996</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>1.8283</v>
+      </c>
+      <c r="F14" s="8">
+        <v>-0.83413000000000004</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="11">
+        <v>-0.81708000000000003</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6">
+        <v>-1.3172999999999999</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6">
+        <v>2.2035</v>
+      </c>
+      <c r="P14" s="11">
+        <v>-0.35616999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B16" s="6">
+        <v>-0.1903783</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9">
+        <v>-1.029854E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-0.13878860000000001</v>
+      </c>
+      <c r="I16" s="12">
+        <v>-4.3440019999999999E-6</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1.816505E-6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>-3.4995449999999998E-4</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="6">
+        <v>1.2212E-3</v>
+      </c>
+      <c r="P16" s="11">
+        <v>7.3735159999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17">
+      <c r="B17" s="6">
+        <v>-0.14990000000000001</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9">
+        <v>-8.0764000000000002E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>-1.4932000000000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-2.1781000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="K17" s="6">
+        <v>-9.6353999999999995E-2</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6">
+        <v>1.5074000000000001</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3.3037000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B18" s="6">
+        <v>0.84818090000000002</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12">
+        <v>-1.6647940000000001E-7</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9">
+        <v>-2.9688129999999998E-3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>-0.7822886</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-0.61436599999999997</v>
+      </c>
+      <c r="N18" s="8">
+        <v>-0.25840940000000001</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1.39653E-4</v>
+      </c>
+      <c r="P18" s="11">
+        <v>-9.9367280000000006E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17">
+      <c r="B19" s="6">
+        <v>1.2802</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>-3.5895999999999999</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="9">
+        <v>-0.89883999999999997</v>
+      </c>
+      <c r="L19" s="11">
+        <v>-2.3266</v>
+      </c>
+      <c r="M19" s="11">
+        <v>-20.507999999999999</v>
+      </c>
+      <c r="N19" s="8">
+        <v>-0.79007000000000005</v>
+      </c>
+      <c r="O19" s="6">
+        <v>4.1791999999999998</v>
+      </c>
+      <c r="P19" s="11">
+        <v>-0.54063000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.4989129999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.4030039999999998E-2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.1867847</v>
-      </c>
-      <c r="N2" s="2">
-        <v>-1.936533E-3</v>
-      </c>
-      <c r="R2" s="3">
-        <v>8.6285760000000004E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="17">
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.1692</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.48902000000000001</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.70270999999999995</v>
-      </c>
-      <c r="N3" s="2">
-        <v>-0.95060999999999996</v>
-      </c>
-      <c r="R3" s="2">
-        <v>2.6711999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="17">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.4965630000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.476096E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.1892991</v>
-      </c>
-      <c r="N4" s="2">
-        <v>-2.2552570000000001E-3</v>
-      </c>
-      <c r="R4" s="3">
-        <v>7.3373709999999999E-5</v>
-      </c>
-      <c r="S4" s="2">
-        <v>9.0034169999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17">
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.51178000000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>-1.0721000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="S5" s="2">
-        <v>4.9972000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="17">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.4690589999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.8855420000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-2.1193680000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.0159150000000001E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-1.5509370000000001E-3</v>
-      </c>
-      <c r="R6" s="3">
-        <v>6.5862280000000007E-5</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-8.3901789999999993E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="17">
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.1831</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.0521000000000003</v>
-      </c>
-      <c r="G7" s="5">
-        <v>-5.3513999999999999</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9.7225000000000006E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-0.69652000000000003</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2.2035</v>
-      </c>
-      <c r="S7" s="2">
-        <v>-0.35616999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.931198</v>
-      </c>
-      <c r="F8" s="5">
-        <v>-0.2899253</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.1012839999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-1.458833</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-0.23935219999999999</v>
-      </c>
-      <c r="N8" s="2">
-        <v>-9.8466360000000006E-3</v>
-      </c>
-      <c r="R8" s="2">
-        <v>-1.3582930000000001E-4</v>
-      </c>
-      <c r="S8" s="2">
-        <v>-8.3901789999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17">
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-0.65076999999999996</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1.8283</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-0.83413000000000004</v>
-      </c>
-      <c r="K9" s="2">
-        <v>-0.81708000000000003</v>
-      </c>
-      <c r="N9" s="2">
-        <v>-1.3172999999999999</v>
-      </c>
-      <c r="R9" s="2">
-        <v>2.2035</v>
-      </c>
-      <c r="S9" s="2">
-        <v>-0.35616999999999999</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AF515D-C1A6-414F-A44B-911DA9A6E4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7CC2B-007A-664E-B46F-7D24246F7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17900" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,6 +152,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,11 +166,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue "/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4D4D4C"/>
       <name val="Helvetica Neue "/>
     </font>
     <font>
@@ -222,67 +223,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,7 +293,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,729 +709,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A1A9-D695-FE44-A83C-2CC914D9B748}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
-    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
+    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" s="3" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="17">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.4989129999999999</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.4030039999999998E-2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="10">
-        <v>0.1867847</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5">
-        <v>-1.936533E-3</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="13">
-        <v>8.6285760000000004E-5</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="5">
-        <v>2.1692</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.48902000000000001</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="10">
-        <v>0.70270999999999995</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>-0.95060999999999996</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5">
-        <v>2.6711999999999998</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0.98346990000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.1525780000000003E-2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1">
+        <v>-7.9000979999999998E-2</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1">
+        <v>-3.49979E-3</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="2">
+        <v>4.0041040000000001E-5</v>
+      </c>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="17">
+      <c r="B5" s="1">
+        <v>2.7042999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.64273999999999998</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1">
+        <v>-0.58984000000000003</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="1">
+        <v>-2.1223000000000001</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1">
+        <v>2.5276999999999998</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.4965630000000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3.476096E-2</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11">
-        <v>0.1892991</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6">
-        <v>-2.2552570000000001E-3</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="14">
-        <v>7.3373709999999999E-5</v>
-      </c>
-      <c r="P7" s="11">
-        <v>9.0034169999999997E-2</v>
+      <c r="B7" s="1">
+        <v>0.98884170000000005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.0702170000000001E-2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1">
+        <v>-8.1813849999999994E-2</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1">
+        <v>-3.3793059999999999E-3</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="2">
+        <v>2.9555150000000001E-5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6.0279550000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
-      <c r="B8" s="6">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.51178000000000001</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="11">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6">
-        <v>-1.0721000000000001</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="P8" s="11">
-        <v>4.9972000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="1">
+        <v>2.6938</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.65078999999999998</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1">
+        <v>-0.58850999999999998</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="1">
+        <v>-2.0417999999999998</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1">
+        <v>1.9941</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4.8867000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
-        <v>1.4690589999999999</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.8855420000000001</v>
-      </c>
-      <c r="D10" s="8">
-        <v>-2.1193680000000001</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="11">
-        <v>2.0159150000000001E-2</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6">
-        <v>-1.5509370000000001E-3</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="14">
-        <v>6.5862280000000007E-5</v>
-      </c>
-      <c r="P10" s="11">
-        <v>-8.3901789999999993E-3</v>
+      <c r="B10" s="1">
+        <v>0.92763629999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6126780000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.910849</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="1">
+        <v>-0.13375100000000001</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="1">
+        <v>-3.1349139999999999E-3</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="2">
+        <v>2.6342709999999998E-5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-2.8035170000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
-      <c r="B11" s="6">
-        <v>2.1831</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.0521000000000003</v>
-      </c>
-      <c r="D11" s="8">
-        <v>-5.3513999999999999</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="11">
-        <v>9.7225000000000006E-2</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6">
-        <v>-0.69652000000000003</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6">
-        <v>2.2035</v>
-      </c>
-      <c r="P11" s="11">
-        <v>-0.35616999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="1">
+        <v>2.5579000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.2837999999999994</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-8.2775999999999996</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1">
+        <v>-1.1507000000000001</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1">
+        <v>-1.8516999999999999</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="1">
+        <v>1.786</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1.8641000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1452.6569999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.6828479999999999</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="1">
+        <v>5.2031390000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.8105890000000002</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1">
+        <v>-0.93693219999999999</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1">
+        <v>-1.4338750000000001E-2</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="1">
+        <v>4.7732710000000003E-4</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.16458159999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
+      <c r="B13" s="1">
+        <v>-1.0013000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1.1166</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1">
+        <v>1.1718</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.82981000000000005</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1">
+        <v>-1.3058000000000001</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="1">
+        <v>-1.4321999999999999</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="1">
+        <v>0.97211000000000003</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.3931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" ht="17">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.931198</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-0.2899253</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
-        <v>1.1012839999999999</v>
-      </c>
-      <c r="F13" s="8">
-        <v>-1.458833</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="11">
-        <v>-0.23935219999999999</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6">
-        <v>-9.8466360000000006E-3</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6">
-        <v>-1.3582930000000001E-4</v>
-      </c>
-      <c r="P13" s="11">
-        <v>-8.3901789999999993E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17">
-      <c r="B14" s="6">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-0.65076999999999996</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
-        <v>1.8283</v>
-      </c>
-      <c r="F14" s="8">
-        <v>-0.83413000000000004</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="11">
-        <v>-0.81708000000000003</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6">
-        <v>-1.3172999999999999</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6">
-        <v>2.2035</v>
-      </c>
-      <c r="P14" s="11">
-        <v>-0.35616999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" ht="17">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>28.287099999999999</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="1">
+        <v>0.16974690000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-3.8223310000000003E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-1.8829349999999999E-6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1.9112060000000002E-6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1.5272059999999999E-3</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7">
+        <v>1.2212E-3</v>
+      </c>
+      <c r="P15" s="12">
+        <v>7.3735159999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="B16" s="1">
+        <v>0.98326999999999998</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.65747</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-2.0464000000000002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.51807000000000003</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.75373999999999997</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7">
+        <v>1.5074000000000001</v>
+      </c>
+      <c r="P16" s="12">
+        <v>3.3037000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" ht="17">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-0.1903783</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9">
-        <v>-1.029854E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>-0.13878860000000001</v>
-      </c>
-      <c r="I16" s="12">
-        <v>-4.3440019999999999E-6</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1.816505E-6</v>
-      </c>
-      <c r="K16" s="6">
-        <v>-3.4995449999999998E-4</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="6">
-        <v>1.2212E-3</v>
-      </c>
-      <c r="P16" s="11">
-        <v>7.3735159999999994E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17">
-      <c r="B17" s="6">
-        <v>-0.14990000000000001</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9">
-        <v>-8.0764000000000002E-2</v>
-      </c>
-      <c r="H17" s="8">
-        <v>-1.4932000000000001</v>
-      </c>
-      <c r="I17" s="8">
-        <v>-2.1781000000000001</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.24990000000000001</v>
-      </c>
-      <c r="K17" s="6">
-        <v>-9.6353999999999995E-2</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6">
-        <v>1.5074000000000001</v>
-      </c>
-      <c r="P17" s="11">
-        <v>3.3037000000000001</v>
-      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:16" ht="17">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>0.84818090000000002</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="12">
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13">
         <v>-1.6647940000000001E-7</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="9">
+      <c r="J18" s="8"/>
+      <c r="K18" s="10">
         <v>-2.9688129999999998E-3</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="12">
         <v>-0.7822886</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="12">
         <v>-0.61436599999999997</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="9">
         <v>-0.25840940000000001</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <v>1.39653E-4</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="12">
         <v>-9.9367280000000006E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17">
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>1.2802</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9">
         <v>-3.5895999999999999</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="9">
+      <c r="J19" s="8"/>
+      <c r="K19" s="10">
         <v>-0.89883999999999997</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="12">
         <v>-2.3266</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="12">
         <v>-20.507999999999999</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="9">
         <v>-0.79007000000000005</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="7">
         <v>4.1791999999999998</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="12">
         <v>-0.54063000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:16" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC186C-E372-A94D-B32B-CB38E14A85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93CB27B-8F0D-1747-82EA-6B13DBA30728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17960" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">OP/BE </t>
   </si>
@@ -114,13 +114,7 @@
     <t>Panel E: Comparison Investment Variables</t>
   </si>
   <si>
-    <t>Panel F: Strongest EM Variables</t>
-  </si>
-  <si>
     <t>Panel G: Strongest EM vs. Five-Factor Model Variables Model</t>
-  </si>
-  <si>
-    <t>Panel H: Only big stocks</t>
   </si>
   <si>
     <t>Risk</t>
@@ -128,6 +122,18 @@
   </si>
   <si>
     <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel G: Only big stocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel F: Strongest EM Variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel H: Updated Strongest EM Variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,25 +161,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4D4D4C"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Helvetica Neue "/>
     </font>
     <font>
@@ -184,27 +171,64 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Monaco "/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF4D4D4C"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Monaco "/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,13 +245,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,40 +275,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -282,10 +350,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,70 +791,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A1A9-D695-FE44-A83C-2CC914D9B748}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="6" customWidth="1"/>
-    <col min="2" max="8" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="6"/>
-    <col min="15" max="15" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -771,902 +863,990 @@
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="15">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="16">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="3">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="4">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
         <v>2.0165999999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="16">
         <v>0.84189000000000003</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="3">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
         <v>-0.38553999999999999</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="3">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16">
         <v>-2.4647999999999999</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="21">
         <v>3.0920000000000001</v>
       </c>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" s="5" customFormat="1">
-      <c r="A6" s="1" t="s">
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="11"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="2">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="15">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="16">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="3">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="3">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="4">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="20">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="26">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>2.0163000000000002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="16">
         <v>0.90493000000000001</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="3">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
         <v>-0.19785</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="3">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="3">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="21">
         <v>2.5829</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="26">
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:16" s="1" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="15">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="16">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="26">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="3">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="3">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="4">
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="26">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="16">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="26">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="3">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="3">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="3">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="21">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="26">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="2">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="15">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="16">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="3">
+      <c r="D12" s="17"/>
+      <c r="E12" s="26">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="26">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="3">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="3">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="3">
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="21">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="26">
         <v>0.37545709999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
         <v>-0.93572</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="16">
         <v>-0.87734000000000001</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="3">
+      <c r="D13" s="17"/>
+      <c r="E13" s="26">
         <v>0.81711</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="26">
         <v>0.92740999999999996</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="3">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
         <v>1.0445</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="3">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16">
         <v>0.96357999999999999</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="3">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="21">
         <v>0.98575000000000002</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="26">
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:16" s="1" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="15">
         <v>-32.789459999999998</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3">
+      <c r="C15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30">
         <v>0.12524750000000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="19">
         <v>-2.0979890000000001E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="31">
         <v>-1.8107929999999999E-6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="31">
         <v>-8.7338689999999999E-7</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="16">
         <v>-8.3902870000000004E-4</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="3">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="21">
         <v>7.5388310000000004E-4</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="26">
         <v>6.754193E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
         <v>-0.88592000000000004</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3">
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30">
         <v>1.7735000000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="19">
         <v>-0.40558</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="26">
         <v>-2.2151999999999998</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="26">
         <v>-0.26939999999999997</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="16">
         <v>-0.44646999999999998</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="3">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="21">
         <v>2.6680999999999999</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="26">
         <v>5.2184999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="5" customFormat="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:16" s="1" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2">
+      <c r="A18" s="14">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="15">
         <v>0.1701577</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="4">
+      <c r="C18" s="29"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31">
         <v>-8.9423459999999994E-8</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="3">
+      <c r="J18" s="17"/>
+      <c r="K18" s="16">
         <v>-4.033015E-3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="26">
         <v>-0.66088519999999995</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="26">
         <v>-0.59405509999999995</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="26">
         <v>-0.27047700000000002</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="20">
         <v>6.4753639999999999E-5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="26">
         <v>-4.7674399999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
         <v>0.55010999999999999</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="3">
+      <c r="C19" s="29"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="26">
         <v>-3.8092000000000001</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="3">
+      <c r="J19" s="17"/>
+      <c r="K19" s="16">
         <v>-2.4066000000000001</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="26">
         <v>-1.8843000000000001</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="26">
         <v>-27.792000000000002</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="26">
         <v>-1.7574000000000001</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="21">
         <v>3.5775999999999999</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="26">
         <v>-3.8140000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="5" customFormat="1">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="1:16" s="1" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="15">
         <v>0.25726009999999999</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4">
+      <c r="C21" s="29"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31">
         <v>-8.8303210000000001E-8</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3">
+      <c r="J21" s="17"/>
+      <c r="K21" s="16">
         <v>-3.0688730000000002E-3</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3">
+      <c r="L21" s="17"/>
+      <c r="M21" s="26">
         <v>-0.5988523</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="4">
+      <c r="N21" s="17"/>
+      <c r="O21" s="20">
         <v>6.2022019999999998E-5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="26">
         <v>-4.8768180000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
         <v>0.82496999999999998</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3">
+      <c r="C22" s="29"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="26">
         <v>-3.7692999999999999</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3">
+      <c r="J22" s="17"/>
+      <c r="K22" s="16">
         <v>-2.8807</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3">
+      <c r="L22" s="17"/>
+      <c r="M22" s="26">
         <v>-28.122</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="3">
+      <c r="N22" s="17"/>
+      <c r="O22" s="21">
         <v>3.4742000000000002</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="26">
         <v>-4.0103999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="2">
+      <c r="A23" s="14">
         <v>8</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="15">
         <v>0.2301636</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4">
+      <c r="C23" s="29"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31">
         <v>-8.4458439999999996E-8</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3">
+      <c r="J23" s="17"/>
+      <c r="K23" s="16">
         <v>-2.8556839999999998E-3</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3">
+      <c r="L23" s="17"/>
+      <c r="M23" s="26">
         <v>-0.56192149999999996</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="4">
+      <c r="N23" s="17"/>
+      <c r="O23" s="20">
         <v>5.8172720000000001E-5</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
         <v>0.74163999999999997</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3">
+      <c r="C24" s="29"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="26">
         <v>-3.5124</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3">
+      <c r="J24" s="17"/>
+      <c r="K24" s="16">
         <v>-2.6594000000000002</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3">
+      <c r="L24" s="17"/>
+      <c r="M24" s="26">
         <v>-30.271999999999998</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3">
+      <c r="N24" s="17"/>
+      <c r="O24" s="21">
         <v>3.1434000000000002</v>
       </c>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2">
+      <c r="A26" s="14">
         <v>9</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="15">
         <v>2.1883659999999999E-2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="16">
         <v>8.9327519999999994E-2</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="3">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19">
         <v>-0.24511930000000001</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="31">
         <v>-1.7544169999999999E-7</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="3">
+      <c r="J26" s="17"/>
+      <c r="K26" s="16">
         <v>-3.0520289999999999E-3</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="3">
+      <c r="L26" s="17"/>
+      <c r="M26" s="26">
         <v>-0.59712900000000002</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="3">
+      <c r="N26" s="17"/>
+      <c r="O26" s="21">
         <v>1.5767489999999999E-4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="26">
         <v>-4.7416819999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
         <v>6.8780999999999995E-2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="16">
         <v>2.0571000000000002</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="3">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19">
         <v>-1.3976</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="26">
         <v>-4.3090000000000002</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="3">
+      <c r="J27" s="17"/>
+      <c r="K27" s="16">
         <v>-2.0011999999999999</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="3">
+      <c r="L27" s="17"/>
+      <c r="M27" s="26">
         <v>-26.596</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="3">
+      <c r="N27" s="17"/>
+      <c r="O27" s="21">
         <v>4.7961999999999998</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="26">
         <v>-3.2422</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="2">
+      <c r="A28" s="14">
         <v>10</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="21">
         <v>2.7474800000000001E-2</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="16">
         <v>7.5141990000000006E-2</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="3">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19">
         <v>-1.1825000000000001</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="31">
         <v>-1.6681719999999999E-7</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="3">
+      <c r="J28" s="17"/>
+      <c r="K28" s="16">
         <v>-2.8897789999999999E-3</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="3">
+      <c r="L28" s="17"/>
+      <c r="M28" s="26">
         <v>-0.56185580000000002</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="3">
+      <c r="N28" s="17"/>
+      <c r="O28" s="21">
         <v>1.516047E-4</v>
       </c>
-      <c r="P28" s="3"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="21">
         <v>8.7036000000000002E-2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="16">
         <v>1.7061999999999999</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="3">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19">
         <v>-0.1962217</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="26">
         <v>-4.0349000000000004</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="3">
+      <c r="J29" s="17"/>
+      <c r="K29" s="16">
         <v>-1.8813</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="3">
+      <c r="L29" s="17"/>
+      <c r="M29" s="26">
         <v>-29.832999999999998</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="3">
+      <c r="N29" s="17"/>
+      <c r="O29" s="21">
         <v>4.5044000000000004</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" s="5" customFormat="1">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="13"/>
+      <c r="A31" s="14">
+        <v>11</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.1718383</v>
+      </c>
+      <c r="C31" s="16">
+        <v>8.9636439999999998E-2</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="37">
+        <v>-1.440351E-7</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16">
+        <v>-2.2856360000000002E-3</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="36">
+        <v>-0.57812569999999996</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="20">
+        <v>9.9098829999999996E-5</v>
+      </c>
+      <c r="P31" s="36">
+        <v>-4.9352439999999997E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>10</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>11</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="2"/>
+      <c r="A32" s="14">
+        <v>12</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.55696999999999997</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2.2705000000000002</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="38">
+        <v>-4.0654000000000003</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="38">
+        <v>-2.0701000000000001</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="38">
+        <v>-27.256</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="38">
+        <v>4.3573000000000004</v>
+      </c>
+      <c r="P32" s="36">
+        <v>-3.7322000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="14">
+        <v>13</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="14">
+        <v>14</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="14">
+        <v>15</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93CB27B-8F0D-1747-82EA-6B13DBA30728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A62883-62A2-3441-B7D5-04C10CC287AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17960" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">OP/BE </t>
   </si>
@@ -141,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +157,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -197,7 +204,40 @@
       <name val="Monaco "/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4D4D4C"/>
+      <name val="Monaco "/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="0"/>
       <name val="Monaco "/>
     </font>
@@ -262,122 +302,233 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,6 +618,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774403</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>778003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104847</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0966DA3-CEF0-9945-8E3A-D09667DA2C61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2118240" y="1352880"/>
+            <a:ext cx="3600" cy="7200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="墨迹 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0966DA3-CEF0-9945-8E3A-D09667DA2C61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2109240" y="1344240"/>
+              <a:ext cx="21240" cy="24840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -484,6 +705,33 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2023-07-01T13:29:18.766"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 20 8191,'5'-11'0,"0"3"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-01T21:34:57.483"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -793,1060 +1041,2136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2A1A9-D695-FE44-A83C-2CC914D9B748}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
-    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" s="3" customFormat="1">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="22">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="17"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>2.0165999999999999</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>0.84189000000000003</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21">
         <v>-0.38553999999999999</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18">
         <v>-2.4647999999999999</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="21">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="23">
         <v>3.0920000000000001</v>
       </c>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1">
-      <c r="A6" s="3" t="s">
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="18">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="20">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="22">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="28">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17">
         <v>2.0163000000000002</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>0.90493000000000001</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21">
         <v>-0.19785</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="21">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="23">
         <v>2.5829</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="28">
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:16" s="3" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="28">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="22">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="28">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="28">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="21">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="23">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="28">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="26">
+      <c r="D12" s="19"/>
+      <c r="E12" s="28">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="21">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="23">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="28">
         <v>0.37545709999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>-0.93572</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>-0.87734000000000001</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="26">
+      <c r="D13" s="19"/>
+      <c r="E13" s="28">
         <v>0.81711</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <v>0.92740999999999996</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
+      <c r="G13" s="20"/>
+      <c r="H13" s="21">
         <v>1.0445</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18">
         <v>0.96357999999999999</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="21">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="23">
         <v>0.98575000000000002</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="28">
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" s="3" customFormat="1">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>-32.789459999999998</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="30">
+      <c r="C15" s="31"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="32">
         <v>0.12524750000000001</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <v>-2.0979890000000001E-2</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="33">
         <v>-1.8107929999999999E-6</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="33">
         <v>-8.7338689999999999E-7</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="18">
         <v>-8.3902870000000004E-4</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="21">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="23">
         <v>7.5388310000000004E-4</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="28">
         <v>6.754193E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <v>-0.88592000000000004</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="30">
+      <c r="C16" s="31"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="32">
         <v>1.7735000000000001</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <v>-0.40558</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <v>-2.2151999999999998</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="28">
         <v>-0.26939999999999997</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="18">
         <v>-0.44646999999999998</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="21">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="23">
         <v>2.6680999999999999</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="28">
         <v>5.2184999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:16" s="3" customFormat="1">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>0.1701577</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31">
+      <c r="C18" s="31"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33">
         <v>-8.9423459999999994E-8</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16">
+      <c r="J18" s="19"/>
+      <c r="K18" s="18">
         <v>-4.033015E-3</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="28">
         <v>-0.66088519999999995</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="28">
         <v>-0.59405509999999995</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="28">
         <v>-0.27047700000000002</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="22">
         <v>6.4753639999999999E-5</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="28">
         <v>-4.7674399999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
         <v>0.55010999999999999</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="26">
+      <c r="C19" s="31"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="28">
         <v>-3.8092000000000001</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16">
+      <c r="J19" s="19"/>
+      <c r="K19" s="18">
         <v>-2.4066000000000001</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <v>-1.8843000000000001</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="28">
         <v>-27.792000000000002</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="28">
         <v>-1.7574000000000001</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="23">
         <v>3.5775999999999999</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="28">
         <v>-3.8140000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:16" s="3" customFormat="1">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>7</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="17">
         <v>0.25726009999999999</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31">
+      <c r="C21" s="31"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33">
         <v>-8.8303210000000001E-8</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16">
+      <c r="J21" s="19"/>
+      <c r="K21" s="18">
         <v>-3.0688730000000002E-3</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="26">
+      <c r="L21" s="19"/>
+      <c r="M21" s="28">
         <v>-0.5988523</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="20">
+      <c r="N21" s="19"/>
+      <c r="O21" s="22">
         <v>6.2022019999999998E-5</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="28">
         <v>-4.8768180000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17">
         <v>0.82496999999999998</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="26">
+      <c r="C22" s="31"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="28">
         <v>-3.7692999999999999</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16">
+      <c r="J22" s="19"/>
+      <c r="K22" s="18">
         <v>-2.8807</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="26">
+      <c r="L22" s="19"/>
+      <c r="M22" s="28">
         <v>-28.122</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="21">
+      <c r="N22" s="19"/>
+      <c r="O22" s="23">
         <v>3.4742000000000002</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="28">
         <v>-4.0103999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>8</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="17">
         <v>0.2301636</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31">
+      <c r="C23" s="31"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33">
         <v>-8.4458439999999996E-8</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16">
+      <c r="J23" s="19"/>
+      <c r="K23" s="18">
         <v>-2.8556839999999998E-3</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="26">
+      <c r="L23" s="19"/>
+      <c r="M23" s="28">
         <v>-0.56192149999999996</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="20">
+      <c r="N23" s="19"/>
+      <c r="O23" s="22">
         <v>5.8172720000000001E-5</v>
       </c>
-      <c r="P23" s="17"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17">
         <v>0.74163999999999997</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="26">
+      <c r="C24" s="31"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="28">
         <v>-3.5124</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16">
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
         <v>-2.6594000000000002</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="26">
+      <c r="L24" s="19"/>
+      <c r="M24" s="28">
         <v>-30.271999999999998</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="21">
+      <c r="N24" s="19"/>
+      <c r="O24" s="23">
         <v>3.1434000000000002</v>
       </c>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1">
-      <c r="A25" s="3" t="s">
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>9</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>2.1883659999999999E-2</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="18">
         <v>8.9327519999999994E-2</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21">
         <v>-0.24511930000000001</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="33">
         <v>-1.7544169999999999E-7</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16">
+      <c r="J26" s="19"/>
+      <c r="K26" s="18">
         <v>-3.0520289999999999E-3</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="26">
+      <c r="L26" s="19"/>
+      <c r="M26" s="28">
         <v>-0.59712900000000002</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="21">
+      <c r="N26" s="19"/>
+      <c r="O26" s="23">
         <v>1.5767489999999999E-4</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="28">
         <v>-4.7416819999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17">
         <v>6.8780999999999995E-2</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="18">
         <v>2.0571000000000002</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21">
         <v>-1.3976</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="28">
         <v>-4.3090000000000002</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16">
+      <c r="J27" s="19"/>
+      <c r="K27" s="18">
         <v>-2.0011999999999999</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="26">
+      <c r="L27" s="19"/>
+      <c r="M27" s="28">
         <v>-26.596</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="21">
+      <c r="N27" s="19"/>
+      <c r="O27" s="23">
         <v>4.7961999999999998</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="28">
         <v>-3.2422</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>10</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="23">
         <v>2.7474800000000001E-2</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="18">
         <v>7.5141990000000006E-2</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21">
         <v>-1.1825000000000001</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="33">
         <v>-1.6681719999999999E-7</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="16">
+      <c r="J28" s="19"/>
+      <c r="K28" s="18">
         <v>-2.8897789999999999E-3</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="26">
+      <c r="L28" s="19"/>
+      <c r="M28" s="28">
         <v>-0.56185580000000002</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="21">
+      <c r="N28" s="19"/>
+      <c r="O28" s="23">
         <v>1.516047E-4</v>
       </c>
-      <c r="P28" s="26"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="14"/>
-      <c r="B29" s="21">
+      <c r="A29" s="16"/>
+      <c r="B29" s="23">
         <v>8.7036000000000002E-2</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="18">
         <v>1.7061999999999999</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21">
         <v>-0.1962217</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="28">
         <v>-4.0349000000000004</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="16">
+      <c r="J29" s="19"/>
+      <c r="K29" s="18">
         <v>-1.8813</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="26">
+      <c r="L29" s="19"/>
+      <c r="M29" s="28">
         <v>-29.832999999999998</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="21">
+      <c r="N29" s="19"/>
+      <c r="O29" s="23">
         <v>4.5044000000000004</v>
       </c>
-      <c r="P29" s="26"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>11</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="23">
         <v>0.1718383</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="18">
         <v>8.9636439999999998E-2</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="41">
+        <v>-1.440351E-7</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18">
+        <v>-2.2856360000000002E-3</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="40">
+        <v>-0.57812569999999996</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="22">
+        <v>9.9098829999999996E-5</v>
+      </c>
+      <c r="P31" s="40">
+        <v>-4.9352439999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="16"/>
+      <c r="B32" s="23">
+        <v>0.55696999999999997</v>
+      </c>
+      <c r="C32" s="42">
+        <v>2.2705000000000002</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="42">
+        <v>-4.0654000000000003</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="42">
+        <v>-2.0701000000000001</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="42">
+        <v>-27.256</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="42">
+        <v>4.3573000000000004</v>
+      </c>
+      <c r="P32" s="40">
+        <v>-3.7322000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="16">
+        <v>12</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="16">
+        <v>13</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="16">
+        <v>14</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AF63D-4A2B-6C44-BA4E-AE541EEE8959}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" ht="17">
+      <c r="A4" s="54">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55">
+        <v>0.62879130000000005</v>
+      </c>
+      <c r="C4" s="56">
+        <v>3.6155180000000002E-2</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59">
+        <v>-4.5438249999999999E-2</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="56">
+        <v>-3.6966339999999999E-3</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="60">
+        <v>4.396825E-5</v>
+      </c>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="1:16" ht="17">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55">
+        <v>2.0165999999999999</v>
+      </c>
+      <c r="C5" s="56">
+        <v>0.84189000000000003</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59">
+        <v>-0.38553999999999999</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="56">
+        <v>-2.4647999999999999</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="61">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="P5" s="57"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" spans="1:16" ht="17">
+      <c r="A7" s="54">
+        <v>2</v>
+      </c>
+      <c r="B7" s="55">
+        <v>0.63930330000000002</v>
+      </c>
+      <c r="C7" s="56">
+        <v>3.7481380000000002E-2</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59">
+        <v>-2.4859949999999999E-2</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="56">
+        <v>-3.397302E-3</v>
+      </c>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="60">
+        <v>3.4935360000000002E-5</v>
+      </c>
+      <c r="P7" s="66">
+        <v>5.6649949999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55">
+        <v>2.0163000000000002</v>
+      </c>
+      <c r="C8" s="56">
+        <v>0.90493000000000001</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59">
+        <v>-0.19785</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="56">
+        <v>-2.2635000000000001</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="61">
+        <v>2.5829</v>
+      </c>
+      <c r="P8" s="66">
+        <v>4.9610000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="67"/>
+    </row>
+    <row r="10" spans="1:16" ht="17">
+      <c r="A10" s="54">
+        <v>3</v>
+      </c>
+      <c r="B10" s="55">
+        <v>0.58309230000000001</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1.7602739999999999</v>
+      </c>
+      <c r="D10" s="66">
+        <v>-2.0966809999999998</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59">
+        <v>-8.6146810000000004E-2</v>
+      </c>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="56">
+        <v>-3.2992939999999999E-3</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="60">
+        <v>3.1172289999999999E-5</v>
+      </c>
+      <c r="P10" s="66">
+        <v>-3.3278580000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55">
+        <v>1.8604000000000001</v>
+      </c>
+      <c r="C11" s="56">
+        <v>9.8452000000000002</v>
+      </c>
+      <c r="D11" s="66">
+        <v>-9.9427000000000003</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59">
+        <v>-0.80386000000000002</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="56">
+        <v>-2.1934999999999998</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="61">
+        <v>2.3203</v>
+      </c>
+      <c r="P11" s="66">
+        <v>2.4056000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17">
+      <c r="A12" s="54">
+        <v>4</v>
+      </c>
+      <c r="B12" s="55">
+        <v>-13.28279</v>
+      </c>
+      <c r="C12" s="56">
+        <v>-2.3071160000000002</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="66">
+        <v>1.0692980000000001</v>
+      </c>
+      <c r="F12" s="66">
+        <v>53.045909999999999</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59">
+        <v>1.181413</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56">
+        <v>7.2975189999999995E-2</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="61">
+        <v>4.8899759999999999E-3</v>
+      </c>
+      <c r="P12" s="66">
+        <v>0.37545709999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55">
+        <v>-0.93572</v>
+      </c>
+      <c r="C13" s="56">
+        <v>-0.87734000000000001</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="66">
+        <v>0.81711</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.92740999999999996</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59">
+        <v>1.0445</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="56">
+        <v>0.96357999999999999</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="61">
+        <v>0.98575000000000002</v>
+      </c>
+      <c r="P13" s="66">
+        <v>1.0659000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="67"/>
+    </row>
+    <row r="15" spans="1:16" ht="17">
+      <c r="A15" s="54">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-32.767980000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.11502039999999999</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="1">
+        <v>0.12972539999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1.043667E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-2.803863E-6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-4.1300110000000003E-7</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-9.8798799999999997E-4</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="1">
+        <v>9.8271050000000009E-4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>6.6081219999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="A16" s="54"/>
+      <c r="B16" s="1">
+        <v>-0.88534000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5156000000000001</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="1">
+        <v>1.9697</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-0.2014</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-2.7968999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.12683</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.53185000000000004</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="1">
+        <v>2.9297</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5.0848000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A17" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" ht="17">
+      <c r="A18" s="54">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.16864750000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.1221406</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="2">
+        <v>-1.307385E-7</v>
+      </c>
+      <c r="J18" s="57"/>
+      <c r="K18" s="1">
+        <v>-2.9447449999999999E-3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.72280690000000003</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-0.5766078</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-0.22263530000000001</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9.5343660000000004E-5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-5.052504E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17">
+      <c r="A19" s="54"/>
+      <c r="B19" s="1">
+        <v>0.54684999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.8054000000000001</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="1">
+        <v>-3.3498999999999999</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="1">
+        <v>-1.5887</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-1.8247</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-27.018999999999998</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-1.2786</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4.1505999999999998</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-3.7423000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="49"/>
+    </row>
+    <row r="21" spans="1:16" ht="17">
+      <c r="A21" s="54">
+        <v>7</v>
+      </c>
+      <c r="B21" s="55">
+        <v>0.25726009999999999</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="70">
+        <v>-8.8303210000000001E-8</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="56">
+        <v>-3.0688730000000002E-3</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="66">
+        <v>-0.5988523</v>
+      </c>
+      <c r="N21" s="57"/>
+      <c r="O21" s="60">
+        <v>6.2022019999999998E-5</v>
+      </c>
+      <c r="P21" s="66">
+        <v>-4.8768180000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55">
+        <v>0.82496999999999998</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="66">
+        <v>-3.7692999999999999</v>
+      </c>
+      <c r="J22" s="57"/>
+      <c r="K22" s="56">
+        <v>-2.8807</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="66">
+        <v>-28.122</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="61">
+        <v>3.4742000000000002</v>
+      </c>
+      <c r="P22" s="66">
+        <v>-4.0103999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17">
+      <c r="A23" s="54">
+        <v>8</v>
+      </c>
+      <c r="B23" s="55">
+        <v>0.2301636</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="70">
+        <v>-8.4458439999999996E-8</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="56">
+        <v>-2.8556839999999998E-3</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="66">
+        <v>-0.56192149999999996</v>
+      </c>
+      <c r="N23" s="57"/>
+      <c r="O23" s="60">
+        <v>5.8172720000000001E-5</v>
+      </c>
+      <c r="P23" s="57"/>
+    </row>
+    <row r="24" spans="1:16" ht="17">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55">
+        <v>0.74163999999999997</v>
+      </c>
+      <c r="C24" s="69"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="66">
+        <v>-3.5124</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="56">
+        <v>-2.6594000000000002</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="66">
+        <v>-30.271999999999998</v>
+      </c>
+      <c r="N24" s="57"/>
+      <c r="O24" s="61">
+        <v>3.1434000000000002</v>
+      </c>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A25" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:16" ht="17">
+      <c r="A26" s="54">
+        <v>9</v>
+      </c>
+      <c r="B26" s="55">
+        <v>2.1883659999999999E-2</v>
+      </c>
+      <c r="C26" s="56">
+        <v>8.9327519999999994E-2</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59">
+        <v>-0.24511930000000001</v>
+      </c>
+      <c r="I26" s="70">
+        <v>-1.7544169999999999E-7</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="56">
+        <v>-3.0520289999999999E-3</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="66">
+        <v>-0.59712900000000002</v>
+      </c>
+      <c r="N26" s="57"/>
+      <c r="O26" s="61">
+        <v>1.5767489999999999E-4</v>
+      </c>
+      <c r="P26" s="66">
+        <v>-4.7416819999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55">
+        <v>6.8780999999999995E-2</v>
+      </c>
+      <c r="C27" s="56">
+        <v>2.0571000000000002</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59">
+        <v>-1.3976</v>
+      </c>
+      <c r="I27" s="66">
+        <v>-4.3090000000000002</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="56">
+        <v>-2.0011999999999999</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="66">
+        <v>-26.596</v>
+      </c>
+      <c r="N27" s="57"/>
+      <c r="O27" s="61">
+        <v>4.7961999999999998</v>
+      </c>
+      <c r="P27" s="66">
+        <v>-3.2422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17">
+      <c r="A28" s="54">
+        <v>10</v>
+      </c>
+      <c r="B28" s="61">
+        <v>2.7474800000000001E-2</v>
+      </c>
+      <c r="C28" s="56">
+        <v>7.5141990000000006E-2</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59">
+        <v>-1.1825000000000001</v>
+      </c>
+      <c r="I28" s="70">
+        <v>-1.6681719999999999E-7</v>
+      </c>
+      <c r="J28" s="57"/>
+      <c r="K28" s="56">
+        <v>-2.8897789999999999E-3</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="66">
+        <v>-0.56185580000000002</v>
+      </c>
+      <c r="N28" s="57"/>
+      <c r="O28" s="61">
+        <v>1.516047E-4</v>
+      </c>
+      <c r="P28" s="66"/>
+    </row>
+    <row r="29" spans="1:16" ht="17">
+      <c r="A29" s="54"/>
+      <c r="B29" s="61">
+        <v>8.7036000000000002E-2</v>
+      </c>
+      <c r="C29" s="56">
+        <v>1.7061999999999999</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59">
+        <v>-0.1962217</v>
+      </c>
+      <c r="I29" s="66">
+        <v>-4.0349000000000004</v>
+      </c>
+      <c r="J29" s="57"/>
+      <c r="K29" s="56">
+        <v>-1.8813</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="66">
+        <v>-29.832999999999998</v>
+      </c>
+      <c r="N29" s="57"/>
+      <c r="O29" s="61">
+        <v>4.5044000000000004</v>
+      </c>
+      <c r="P29" s="66"/>
+    </row>
+    <row r="30" spans="1:16" ht="17">
+      <c r="A30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="61"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="66"/>
+    </row>
+    <row r="31" spans="1:16" ht="17">
+      <c r="A31" s="54">
+        <v>11</v>
+      </c>
+      <c r="B31" s="61">
+        <v>0.1718383</v>
+      </c>
+      <c r="C31" s="56">
+        <v>8.9636439999999998E-2</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="37">
         <v>-1.440351E-7</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="16">
+      <c r="J31" s="57"/>
+      <c r="K31" s="56">
         <v>-2.2856360000000002E-3</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="36">
         <v>-0.57812569999999996</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="20">
+      <c r="N31" s="57"/>
+      <c r="O31" s="60">
         <v>9.9098829999999996E-5</v>
       </c>
       <c r="P31" s="36">
         <v>-4.9352439999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="14">
-        <v>12</v>
-      </c>
-      <c r="B32" s="21">
+    <row r="32" spans="1:16" ht="17">
+      <c r="A32" s="54"/>
+      <c r="B32" s="61">
         <v>0.55696999999999997</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="73">
         <v>2.2705000000000002</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="38">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="73">
         <v>-4.0654000000000003</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="38">
+      <c r="J32" s="57"/>
+      <c r="K32" s="73">
         <v>-2.0701000000000001</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="38">
+      <c r="L32" s="57"/>
+      <c r="M32" s="73">
         <v>-27.256</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="38">
+      <c r="N32" s="57"/>
+      <c r="O32" s="73">
         <v>4.3573000000000004</v>
       </c>
       <c r="P32" s="36">
         <v>-3.7322000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A33" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="14">
+      <c r="B33" s="52"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="49"/>
+    </row>
+    <row r="34" spans="1:16" ht="17">
+      <c r="A34" s="54">
+        <v>12</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:16" ht="17">
+      <c r="A35" s="54">
         <v>13</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="14">
+      <c r="B35" s="74"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" ht="17">
+      <c r="A36" s="54">
         <v>14</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="14">
-        <v>15</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="17"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A62883-62A2-3441-B7D5-04C10CC287AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2132E052-32BB-8341-83F1-E42CD666C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17960" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t xml:space="preserve">OP/BE </t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>Panel G: Only big stocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel H: Only big stocks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,7 +243,8 @@
     <font>
       <sz val="13"/>
       <color theme="0"/>
-      <name val="Monaco "/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -268,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -296,20 +301,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -411,12 +507,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,73 +552,199 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,1052 +1263,1052 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="4"/>
-    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="5" t="s">
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="22">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
         <v>2.0165999999999999</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>0.84189000000000003</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
         <v>-0.38553999999999999</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16">
         <v>-2.4647999999999999</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="23">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="21">
         <v>3.0920000000000001</v>
       </c>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="5" t="s">
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="11"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="22">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="20">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>2.0163000000000002</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0.90493000000000001</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
         <v>-0.19785</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="23">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="21">
         <v>2.5829</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" s="1" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="18">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="22">
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="23">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="21">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="26">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="28">
+      <c r="D12" s="17"/>
+      <c r="E12" s="26">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="23">
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="21">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="26">
         <v>0.37545709999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
         <v>-0.93572</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>-0.87734000000000001</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="28">
+      <c r="D13" s="17"/>
+      <c r="E13" s="26">
         <v>0.81711</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>0.92740999999999996</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
         <v>1.0445</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16">
         <v>0.96357999999999999</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="23">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="21">
         <v>0.98575000000000002</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="26">
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:16" s="1" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>-32.789459999999998</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="32">
+      <c r="C15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30">
         <v>0.12524750000000001</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>-2.0979890000000001E-2</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>-1.8107929999999999E-6</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="31">
         <v>-8.7338689999999999E-7</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>-8.3902870000000004E-4</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="23">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="21">
         <v>7.5388310000000004E-4</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="26">
         <v>6.754193E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
         <v>-0.88592000000000004</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="32">
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30">
         <v>1.7735000000000001</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>-0.40558</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <v>-2.2151999999999998</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <v>-0.26939999999999997</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="16">
         <v>-0.44646999999999998</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="23">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="21">
         <v>2.6680999999999999</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="26">
         <v>5.2184999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:16" s="1" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="29"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.1701577</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33">
+      <c r="C18" s="29"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31">
         <v>-8.9423459999999994E-8</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18">
+      <c r="J18" s="17"/>
+      <c r="K18" s="16">
         <v>-4.033015E-3</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>-0.66088519999999995</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>-0.59405509999999995</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>-0.27047700000000002</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="20">
         <v>6.4753639999999999E-5</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <v>-4.7674399999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
         <v>0.55010999999999999</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="28">
+      <c r="C19" s="29"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="26">
         <v>-3.8092000000000001</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18">
+      <c r="J19" s="17"/>
+      <c r="K19" s="16">
         <v>-2.4066000000000001</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="26">
         <v>-1.8843000000000001</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="26">
         <v>-27.792000000000002</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="26">
         <v>-1.7574000000000001</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="21">
         <v>3.5775999999999999</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="26">
         <v>-3.8140000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="11"/>
+    <row r="20" spans="1:16" s="1" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>7</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>0.25726009999999999</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33">
+      <c r="C21" s="29"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31">
         <v>-8.8303210000000001E-8</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18">
+      <c r="J21" s="17"/>
+      <c r="K21" s="16">
         <v>-3.0688730000000002E-3</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="28">
+      <c r="L21" s="17"/>
+      <c r="M21" s="26">
         <v>-0.5988523</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="22">
+      <c r="N21" s="17"/>
+      <c r="O21" s="20">
         <v>6.2022019999999998E-5</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="26">
         <v>-4.8768180000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
         <v>0.82496999999999998</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="28">
+      <c r="C22" s="29"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="26">
         <v>-3.7692999999999999</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18">
+      <c r="J22" s="17"/>
+      <c r="K22" s="16">
         <v>-2.8807</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="28">
+      <c r="L22" s="17"/>
+      <c r="M22" s="26">
         <v>-28.122</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="23">
+      <c r="N22" s="17"/>
+      <c r="O22" s="21">
         <v>3.4742000000000002</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <v>-4.0103999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>8</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>0.2301636</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="33">
+      <c r="C23" s="29"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31">
         <v>-8.4458439999999996E-8</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18">
+      <c r="J23" s="17"/>
+      <c r="K23" s="16">
         <v>-2.8556839999999998E-3</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="28">
+      <c r="L23" s="17"/>
+      <c r="M23" s="26">
         <v>-0.56192149999999996</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="22">
+      <c r="N23" s="17"/>
+      <c r="O23" s="20">
         <v>5.8172720000000001E-5</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
         <v>0.74163999999999997</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="28">
+      <c r="C24" s="29"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="26">
         <v>-3.5124</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18">
+      <c r="J24" s="17"/>
+      <c r="K24" s="16">
         <v>-2.6594000000000002</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="28">
+      <c r="L24" s="17"/>
+      <c r="M24" s="26">
         <v>-30.271999999999998</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="23">
+      <c r="N24" s="17"/>
+      <c r="O24" s="21">
         <v>3.1434000000000002</v>
       </c>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1">
-      <c r="A25" s="5" t="s">
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>9</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>2.1883659999999999E-2</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>8.9327519999999994E-2</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19">
         <v>-0.24511930000000001</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>-1.7544169999999999E-7</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="18">
+      <c r="J26" s="17"/>
+      <c r="K26" s="16">
         <v>-3.0520289999999999E-3</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="28">
+      <c r="L26" s="17"/>
+      <c r="M26" s="26">
         <v>-0.59712900000000002</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="23">
+      <c r="N26" s="17"/>
+      <c r="O26" s="21">
         <v>1.5767489999999999E-4</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="26">
         <v>-4.7416819999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
         <v>6.8780999999999995E-2</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>2.0571000000000002</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19">
         <v>-1.3976</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="26">
         <v>-4.3090000000000002</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18">
+      <c r="J27" s="17"/>
+      <c r="K27" s="16">
         <v>-2.0011999999999999</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="28">
+      <c r="L27" s="17"/>
+      <c r="M27" s="26">
         <v>-26.596</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="23">
+      <c r="N27" s="17"/>
+      <c r="O27" s="21">
         <v>4.7961999999999998</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="26">
         <v>-3.2422</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>10</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>2.7474800000000001E-2</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>7.5141990000000006E-2</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19">
         <v>-1.1825000000000001</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>-1.6681719999999999E-7</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="18">
+      <c r="J28" s="17"/>
+      <c r="K28" s="16">
         <v>-2.8897789999999999E-3</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="28">
+      <c r="L28" s="17"/>
+      <c r="M28" s="26">
         <v>-0.56185580000000002</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="23">
+      <c r="N28" s="17"/>
+      <c r="O28" s="21">
         <v>1.516047E-4</v>
       </c>
-      <c r="P28" s="28"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="16"/>
-      <c r="B29" s="23">
+      <c r="A29" s="14"/>
+      <c r="B29" s="21">
         <v>8.7036000000000002E-2</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>1.7061999999999999</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19">
         <v>-0.1962217</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="26">
         <v>-4.0349000000000004</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="18">
+      <c r="J29" s="17"/>
+      <c r="K29" s="16">
         <v>-1.8813</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="28">
+      <c r="L29" s="17"/>
+      <c r="M29" s="26">
         <v>-29.832999999999998</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="23">
+      <c r="N29" s="17"/>
+      <c r="O29" s="21">
         <v>4.5044000000000004</v>
       </c>
-      <c r="P29" s="28"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="28"/>
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>11</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>0.1718383</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>8.9636439999999998E-2</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="41">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="37">
         <v>-1.440351E-7</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="18">
+      <c r="J31" s="17"/>
+      <c r="K31" s="16">
         <v>-2.2856360000000002E-3</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="40">
+      <c r="L31" s="17"/>
+      <c r="M31" s="36">
         <v>-0.57812569999999996</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="22">
+      <c r="N31" s="17"/>
+      <c r="O31" s="20">
         <v>9.9098829999999996E-5</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="36">
         <v>-4.9352439999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="16"/>
-      <c r="B32" s="23">
+      <c r="A32" s="14"/>
+      <c r="B32" s="21">
         <v>0.55696999999999997</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="38">
         <v>2.2705000000000002</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="42">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="38">
         <v>-4.0654000000000003</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="42">
+      <c r="J32" s="17"/>
+      <c r="K32" s="38">
         <v>-2.0701000000000001</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="42">
+      <c r="L32" s="17"/>
+      <c r="M32" s="38">
         <v>-27.256</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="42">
+      <c r="N32" s="17"/>
+      <c r="O32" s="38">
         <v>4.3573000000000004</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="36">
         <v>-3.7322000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:16" s="1" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>12</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="19"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="17"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>13</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="19"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="17"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>14</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="19"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2109,1068 +2325,912 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AF63D-4A2B-6C44-BA4E-AE541EEE8959}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="4"/>
-    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A1" s="45"/>
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="45" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A2" s="43" t="s">
+      <c r="P1" s="42"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="49"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="84"/>
     </row>
     <row r="4" spans="1:16" ht="17">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="51">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="56">
+      <c r="I4" s="52"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="51">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="60">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="55">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="57"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="17">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90">
         <v>2.0165999999999999</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="91">
         <v>0.84189000000000003</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93">
         <v>-0.38553999999999999</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="56">
+      <c r="I5" s="89"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="91">
         <v>-2.4647999999999999</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="61">
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="95">
         <v>3.0920000000000001</v>
       </c>
-      <c r="P5" s="57"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A6" s="43" t="s">
+      <c r="P5" s="89"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="49"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="84"/>
     </row>
     <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="54">
+      <c r="A7" s="52">
         <v>2</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="51">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="56">
+      <c r="I7" s="52"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="51">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="60">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="55">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="57">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90">
         <v>2.0163000000000002</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="91">
         <v>0.90493000000000001</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93">
         <v>-0.19785</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="56">
+      <c r="I8" s="89"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="91">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="61">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="95">
         <v>2.5829</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="100">
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A9" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="67"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>3</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="50">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="51">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="57">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="56">
+      <c r="I10" s="52"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="51">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="60">
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="55">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="66">
+      <c r="P10" s="57">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55">
+      <c r="A11" s="52"/>
+      <c r="B11" s="50">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="51">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="57">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="56">
+      <c r="I11" s="52"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="51">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="61">
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="56">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="66">
+      <c r="P11" s="57">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>4</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="50">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="51">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="66">
+      <c r="D12" s="52"/>
+      <c r="E12" s="57">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="57">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59">
+      <c r="G12" s="53"/>
+      <c r="H12" s="54">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="56">
+      <c r="I12" s="52"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="51">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="61">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="56">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="57">
         <v>0.37545709999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90">
         <v>-0.93572</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="91">
         <v>-0.87734000000000001</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="66">
+      <c r="D13" s="89"/>
+      <c r="E13" s="100">
         <v>0.81711</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="100">
         <v>0.92740999999999996</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59">
+      <c r="G13" s="92"/>
+      <c r="H13" s="93">
         <v>1.0445</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="56">
+      <c r="I13" s="89"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="91">
         <v>0.96357999999999999</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="61">
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="95">
         <v>0.98575000000000002</v>
       </c>
-      <c r="P13" s="66">
+      <c r="P13" s="100">
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="67"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="17">
-      <c r="A15" s="54">
+      <c r="A15" s="52">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="73">
         <v>-32.767980000000001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="65">
         <v>0.11502039999999999</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="1">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="64">
         <v>0.12972539999999999</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="69">
         <v>-1.043667E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="70">
         <v>-2.803863E-6</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="71">
         <v>-4.1300110000000003E-7</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="65">
         <v>-9.8798799999999997E-4</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="1">
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="62">
         <v>9.8271050000000009E-4</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="72">
         <v>6.6081219999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="A16" s="54"/>
-      <c r="B16" s="1">
+      <c r="A16" s="89"/>
+      <c r="B16" s="103">
         <v>-0.88534000000000002</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="104">
         <v>1.5156000000000001</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="1">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="105">
         <v>1.9697</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="106">
         <v>-0.2014</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="107">
         <v>-2.7968999999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="108">
         <v>-0.12683</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="104">
         <v>-0.53185000000000004</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="1">
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="109">
         <v>2.9297</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="107">
         <v>5.0848000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A17" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="67"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="101"/>
     </row>
     <row r="18" spans="1:16" ht="17">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>6</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.16864750000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.1221406</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="2">
-        <v>-1.307385E-7</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="1">
-        <v>-2.9447449999999999E-3</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-0.72280690000000003</v>
-      </c>
-      <c r="M18" s="1">
-        <v>-0.5766078</v>
-      </c>
-      <c r="N18" s="1">
-        <v>-0.22263530000000001</v>
-      </c>
-      <c r="O18" s="2">
-        <v>9.5343660000000004E-5</v>
-      </c>
-      <c r="P18" s="1">
-        <v>-5.052504E-2</v>
+      <c r="B18" s="73">
+        <v>0.74784700000000004</v>
+      </c>
+      <c r="C18" s="65">
+        <v>0.1023022</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="70">
+        <v>-1.6212819999999999E-7</v>
+      </c>
+      <c r="J18" s="68"/>
+      <c r="K18" s="65">
+        <v>-2.5232039999999998E-3</v>
+      </c>
+      <c r="L18" s="72">
+        <v>-1.0094019999999999</v>
+      </c>
+      <c r="M18" s="72">
+        <v>2.8954359999999998E-2</v>
+      </c>
+      <c r="N18" s="72">
+        <v>-0.21152499999999999</v>
+      </c>
+      <c r="O18" s="63">
+        <v>9.664432E-5</v>
+      </c>
+      <c r="P18" s="72">
+        <v>5.4967160000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17">
-      <c r="A19" s="54"/>
-      <c r="B19" s="1">
-        <v>0.54684999999999995</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.8054000000000001</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="1">
-        <v>-3.3498999999999999</v>
-      </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="1">
-        <v>-1.5887</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-1.8247</v>
-      </c>
-      <c r="M19" s="1">
-        <v>-27.018999999999998</v>
-      </c>
-      <c r="N19" s="1">
-        <v>-1.2786</v>
-      </c>
-      <c r="O19" s="1">
-        <v>4.1505999999999998</v>
-      </c>
-      <c r="P19" s="1">
-        <v>-3.7423000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A20" s="43" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="103">
+        <v>2.3233999999999999</v>
+      </c>
+      <c r="C19" s="104">
+        <v>2.3485</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="107">
+        <v>-4.0172999999999996</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="104">
+        <v>-1.3672</v>
+      </c>
+      <c r="L19" s="107">
+        <v>-2.4910999999999999</v>
+      </c>
+      <c r="M19" s="107">
+        <v>2.2574000000000001</v>
+      </c>
+      <c r="N19" s="107">
+        <v>-1.2108000000000001</v>
+      </c>
+      <c r="O19" s="109">
+        <v>4.1574</v>
+      </c>
+      <c r="P19" s="107">
+        <v>4.3960999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A20" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="84"/>
+    </row>
+    <row r="21" spans="1:16" ht="17">
+      <c r="A21" s="52">
+        <v>7</v>
+      </c>
+      <c r="B21" s="73">
+        <v>0.74686030000000003</v>
+      </c>
+      <c r="C21" s="65">
+        <v>8.3642850000000005E-2</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="70">
+        <v>-1.5456030000000001E-7</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="72">
+        <v>-0.95796840000000005</v>
+      </c>
+      <c r="M21" s="57"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="63">
+        <v>9.0674619999999995E-5</v>
+      </c>
+      <c r="P21" s="72">
+        <v>4.7213369999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17">
+      <c r="A22" s="89"/>
+      <c r="B22" s="103">
+        <v>2.3555000000000001</v>
+      </c>
+      <c r="C22" s="112">
+        <v>2.1741999999999999</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="113">
+        <v>-4.1817000000000002</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="113">
+        <v>-2.5575000000000001</v>
+      </c>
+      <c r="M22" s="100"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="112">
+        <v>3.9209000000000001</v>
+      </c>
+      <c r="P22" s="113">
+        <v>4.1763000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A23" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="84"/>
+    </row>
+    <row r="24" spans="1:16" ht="17">
+      <c r="A24" s="52">
+        <v>9</v>
+      </c>
+      <c r="B24" s="73">
+        <v>0.61027330000000002</v>
+      </c>
+      <c r="C24" s="65">
+        <v>7.8933660000000003E-2</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="69">
+        <v>-0.16551009999999999</v>
+      </c>
+      <c r="I24" s="70">
+        <v>-1.5700369999999999E-7</v>
+      </c>
+      <c r="J24" s="68"/>
+      <c r="K24" s="65">
+        <v>-2.221383E-3</v>
+      </c>
+      <c r="L24" s="72">
+        <v>-1.7419260000000001</v>
+      </c>
+      <c r="M24" s="57"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="62">
+        <v>1.1734129999999999E-4</v>
+      </c>
+      <c r="P24" s="72">
+        <v>5.3269740000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17">
+      <c r="A25" s="89"/>
+      <c r="B25" s="103">
+        <v>1.8583000000000001</v>
+      </c>
+      <c r="C25" s="104">
+        <v>1.7845</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="106">
+        <v>-0.96450999999999998</v>
+      </c>
+      <c r="I25" s="107">
+        <v>-3.5886</v>
+      </c>
+      <c r="J25" s="94"/>
+      <c r="K25" s="104">
+        <v>-1.4248000000000001</v>
+      </c>
+      <c r="L25" s="107">
+        <v>-3.4982000000000002</v>
+      </c>
+      <c r="M25" s="100"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="109">
+        <v>3.4685999999999999</v>
+      </c>
+      <c r="P25" s="107">
+        <v>4.3297999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="A26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="49"/>
-    </row>
-    <row r="21" spans="1:16" ht="17">
-      <c r="A21" s="54">
-        <v>7</v>
-      </c>
-      <c r="B21" s="55">
-        <v>0.25726009999999999</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="70">
-        <v>-8.8303210000000001E-8</v>
-      </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="56">
-        <v>-3.0688730000000002E-3</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="66">
-        <v>-0.5988523</v>
-      </c>
-      <c r="N21" s="57"/>
-      <c r="O21" s="60">
-        <v>6.2022019999999998E-5</v>
-      </c>
-      <c r="P21" s="66">
-        <v>-4.8768180000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="17">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55">
-        <v>0.82496999999999998</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="66">
-        <v>-3.7692999999999999</v>
-      </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="56">
-        <v>-2.8807</v>
-      </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="66">
-        <v>-28.122</v>
-      </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="61">
-        <v>3.4742000000000002</v>
-      </c>
-      <c r="P22" s="66">
-        <v>-4.0103999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="17">
-      <c r="A23" s="54">
-        <v>8</v>
-      </c>
-      <c r="B23" s="55">
-        <v>0.2301636</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="70">
-        <v>-8.4458439999999996E-8</v>
-      </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="56">
-        <v>-2.8556839999999998E-3</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="66">
-        <v>-0.56192149999999996</v>
-      </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="60">
-        <v>5.8172720000000001E-5</v>
-      </c>
-      <c r="P23" s="57"/>
-    </row>
-    <row r="24" spans="1:16" ht="17">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55">
-        <v>0.74163999999999997</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="66">
-        <v>-3.5124</v>
-      </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="56">
-        <v>-2.6594000000000002</v>
-      </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="66">
-        <v>-30.271999999999998</v>
-      </c>
-      <c r="N24" s="57"/>
-      <c r="O24" s="61">
-        <v>3.1434000000000002</v>
-      </c>
-      <c r="P24" s="57"/>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A25" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="17">
-      <c r="A26" s="54">
-        <v>9</v>
-      </c>
-      <c r="B26" s="55">
-        <v>2.1883659999999999E-2</v>
-      </c>
-      <c r="C26" s="56">
-        <v>8.9327519999999994E-2</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59">
-        <v>-0.24511930000000001</v>
-      </c>
-      <c r="I26" s="70">
-        <v>-1.7544169999999999E-7</v>
-      </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="56">
-        <v>-3.0520289999999999E-3</v>
-      </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="66">
-        <v>-0.59712900000000002</v>
-      </c>
-      <c r="N26" s="57"/>
-      <c r="O26" s="61">
-        <v>1.5767489999999999E-4</v>
-      </c>
-      <c r="P26" s="66">
-        <v>-4.7416819999999998E-2</v>
-      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="1:16" ht="17">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55">
-        <v>6.8780999999999995E-2</v>
-      </c>
-      <c r="C27" s="56">
-        <v>2.0571000000000002</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59">
-        <v>-1.3976</v>
-      </c>
-      <c r="I27" s="66">
-        <v>-4.3090000000000002</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="56">
-        <v>-2.0011999999999999</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="66">
-        <v>-26.596</v>
-      </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="61">
-        <v>4.7961999999999998</v>
-      </c>
-      <c r="P27" s="66">
-        <v>-3.2422</v>
-      </c>
+      <c r="A27" s="49">
+        <v>12</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" ht="17">
-      <c r="A28" s="54">
-        <v>10</v>
-      </c>
-      <c r="B28" s="61">
-        <v>2.7474800000000001E-2</v>
-      </c>
-      <c r="C28" s="56">
-        <v>7.5141990000000006E-2</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59">
-        <v>-1.1825000000000001</v>
-      </c>
-      <c r="I28" s="70">
-        <v>-1.6681719999999999E-7</v>
-      </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="56">
-        <v>-2.8897789999999999E-3</v>
-      </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="66">
-        <v>-0.56185580000000002</v>
-      </c>
-      <c r="N28" s="57"/>
-      <c r="O28" s="61">
-        <v>1.516047E-4</v>
-      </c>
-      <c r="P28" s="66"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" ht="17">
-      <c r="A29" s="54"/>
-      <c r="B29" s="61">
-        <v>8.7036000000000002E-2</v>
-      </c>
-      <c r="C29" s="56">
-        <v>1.7061999999999999</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59">
-        <v>-0.1962217</v>
-      </c>
-      <c r="I29" s="66">
-        <v>-4.0349000000000004</v>
-      </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="56">
-        <v>-1.8813</v>
-      </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="66">
-        <v>-29.832999999999998</v>
-      </c>
-      <c r="N29" s="57"/>
-      <c r="O29" s="61">
-        <v>4.5044000000000004</v>
-      </c>
-      <c r="P29" s="66"/>
+      <c r="A29" s="49">
+        <v>13</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" ht="17">
-      <c r="A30" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="66"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" ht="17">
-      <c r="A31" s="54">
-        <v>11</v>
-      </c>
-      <c r="B31" s="61">
-        <v>0.1718383</v>
-      </c>
-      <c r="C31" s="56">
-        <v>8.9636439999999998E-2</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
+      <c r="A31" s="49">
+        <v>14</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="59"/>
-      <c r="I31" s="37">
-        <v>-1.440351E-7</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="56">
-        <v>-2.2856360000000002E-3</v>
-      </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="36">
-        <v>-0.57812569999999996</v>
-      </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="60">
-        <v>9.9098829999999996E-5</v>
-      </c>
-      <c r="P31" s="36">
-        <v>-4.9352439999999997E-2</v>
-      </c>
+      <c r="I31" s="52"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="52"/>
     </row>
     <row r="32" spans="1:16" ht="17">
-      <c r="A32" s="54"/>
-      <c r="B32" s="61">
-        <v>0.55696999999999997</v>
-      </c>
-      <c r="C32" s="73">
-        <v>2.2705000000000002</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="59"/>
-      <c r="I32" s="73">
-        <v>-4.0654000000000003</v>
-      </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="73">
-        <v>-2.0701000000000001</v>
-      </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="73">
-        <v>-27.256</v>
-      </c>
-      <c r="N32" s="57"/>
-      <c r="O32" s="73">
-        <v>4.3573000000000004</v>
-      </c>
-      <c r="P32" s="36">
-        <v>-3.7322000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" ht="17">
-      <c r="A33" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="49"/>
-    </row>
-    <row r="34" spans="1:16" ht="17">
-      <c r="A34" s="54">
-        <v>12</v>
-      </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="57"/>
-    </row>
-    <row r="35" spans="1:16" ht="17">
-      <c r="A35" s="54">
-        <v>13</v>
-      </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="57"/>
-    </row>
-    <row r="36" spans="1:16" ht="17">
-      <c r="A36" s="54">
-        <v>14</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="57"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2132E052-32BB-8341-83F1-E42CD666C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D3DBC-9CFE-8F4B-A9D4-A92F9E944481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="22480" yWindow="-19980" windowWidth="34720" windowHeight="17440" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -585,12 +591,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +745,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,1052 +1266,1052 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
-    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" s="3" customFormat="1">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="22">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="17"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>2.0165999999999999</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>0.84189000000000003</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21">
         <v>-0.38553999999999999</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18">
         <v>-2.4647999999999999</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="21">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="23">
         <v>3.0920000000000001</v>
       </c>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1">
-      <c r="A6" s="3" t="s">
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="18">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="20">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="22">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="28">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17">
         <v>2.0163000000000002</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>0.90493000000000001</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21">
         <v>-0.19785</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="21">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="23">
         <v>2.5829</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="28">
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:16" s="3" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="28">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="22">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="28">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="28">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="21">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="23">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="28">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="26">
+      <c r="D12" s="19"/>
+      <c r="E12" s="28">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19">
+      <c r="G12" s="20"/>
+      <c r="H12" s="21">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="21">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="23">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="28">
         <v>0.37545709999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>-0.93572</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>-0.87734000000000001</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="26">
+      <c r="D13" s="19"/>
+      <c r="E13" s="28">
         <v>0.81711</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <v>0.92740999999999996</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
+      <c r="G13" s="20"/>
+      <c r="H13" s="21">
         <v>1.0445</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18">
         <v>0.96357999999999999</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="21">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="23">
         <v>0.98575000000000002</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="28">
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" s="3" customFormat="1">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="14">
+      <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>-32.789459999999998</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="30">
+      <c r="C15" s="31"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="32">
         <v>0.12524750000000001</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="21">
         <v>-2.0979890000000001E-2</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="33">
         <v>-1.8107929999999999E-6</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="33">
         <v>-8.7338689999999999E-7</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="18">
         <v>-8.3902870000000004E-4</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="21">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="23">
         <v>7.5388310000000004E-4</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="28">
         <v>6.754193E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <v>-0.88592000000000004</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="30">
+      <c r="C16" s="31"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="32">
         <v>1.7735000000000001</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="21">
         <v>-0.40558</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <v>-2.2151999999999998</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="28">
         <v>-0.26939999999999997</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="18">
         <v>-0.44646999999999998</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="21">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="23">
         <v>2.6680999999999999</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="28">
         <v>5.2184999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:16" s="3" customFormat="1">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>6</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>0.1701577</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31">
+      <c r="C18" s="31"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33">
         <v>-8.9423459999999994E-8</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16">
+      <c r="J18" s="19"/>
+      <c r="K18" s="18">
         <v>-4.033015E-3</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="28">
         <v>-0.66088519999999995</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="28">
         <v>-0.59405509999999995</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="28">
         <v>-0.27047700000000002</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="22">
         <v>6.4753639999999999E-5</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="28">
         <v>-4.7674399999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
         <v>0.55010999999999999</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="26">
+      <c r="C19" s="31"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="28">
         <v>-3.8092000000000001</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16">
+      <c r="J19" s="19"/>
+      <c r="K19" s="18">
         <v>-2.4066000000000001</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="28">
         <v>-1.8843000000000001</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="28">
         <v>-27.792000000000002</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="28">
         <v>-1.7574000000000001</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="23">
         <v>3.5775999999999999</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="28">
         <v>-3.8140000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:16" s="3" customFormat="1">
+      <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>7</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="17">
         <v>0.25726009999999999</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31">
+      <c r="C21" s="31"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33">
         <v>-8.8303210000000001E-8</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16">
+      <c r="J21" s="19"/>
+      <c r="K21" s="18">
         <v>-3.0688730000000002E-3</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="26">
+      <c r="L21" s="19"/>
+      <c r="M21" s="28">
         <v>-0.5988523</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="20">
+      <c r="N21" s="19"/>
+      <c r="O21" s="22">
         <v>6.2022019999999998E-5</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="28">
         <v>-4.8768180000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17">
         <v>0.82496999999999998</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="26">
+      <c r="C22" s="31"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="28">
         <v>-3.7692999999999999</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16">
+      <c r="J22" s="19"/>
+      <c r="K22" s="18">
         <v>-2.8807</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="26">
+      <c r="L22" s="19"/>
+      <c r="M22" s="28">
         <v>-28.122</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="21">
+      <c r="N22" s="19"/>
+      <c r="O22" s="23">
         <v>3.4742000000000002</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="28">
         <v>-4.0103999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>8</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="17">
         <v>0.2301636</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31">
+      <c r="C23" s="31"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33">
         <v>-8.4458439999999996E-8</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16">
+      <c r="J23" s="19"/>
+      <c r="K23" s="18">
         <v>-2.8556839999999998E-3</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="26">
+      <c r="L23" s="19"/>
+      <c r="M23" s="28">
         <v>-0.56192149999999996</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="20">
+      <c r="N23" s="19"/>
+      <c r="O23" s="22">
         <v>5.8172720000000001E-5</v>
       </c>
-      <c r="P23" s="17"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17">
         <v>0.74163999999999997</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="26">
+      <c r="C24" s="31"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="28">
         <v>-3.5124</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16">
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
         <v>-2.6594000000000002</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="26">
+      <c r="L24" s="19"/>
+      <c r="M24" s="28">
         <v>-30.271999999999998</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="21">
+      <c r="N24" s="19"/>
+      <c r="O24" s="23">
         <v>3.1434000000000002</v>
       </c>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1">
-      <c r="A25" s="3" t="s">
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>9</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>2.1883659999999999E-2</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="18">
         <v>8.9327519999999994E-2</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21">
         <v>-0.24511930000000001</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="33">
         <v>-1.7544169999999999E-7</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16">
+      <c r="J26" s="19"/>
+      <c r="K26" s="18">
         <v>-3.0520289999999999E-3</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="26">
+      <c r="L26" s="19"/>
+      <c r="M26" s="28">
         <v>-0.59712900000000002</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="21">
+      <c r="N26" s="19"/>
+      <c r="O26" s="23">
         <v>1.5767489999999999E-4</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="28">
         <v>-4.7416819999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17">
         <v>6.8780999999999995E-2</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="18">
         <v>2.0571000000000002</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21">
         <v>-1.3976</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="28">
         <v>-4.3090000000000002</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="16">
+      <c r="J27" s="19"/>
+      <c r="K27" s="18">
         <v>-2.0011999999999999</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="26">
+      <c r="L27" s="19"/>
+      <c r="M27" s="28">
         <v>-26.596</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="21">
+      <c r="N27" s="19"/>
+      <c r="O27" s="23">
         <v>4.7961999999999998</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="28">
         <v>-3.2422</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>10</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="23">
         <v>2.7474800000000001E-2</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="18">
         <v>7.5141990000000006E-2</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21">
         <v>-1.1825000000000001</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="33">
         <v>-1.6681719999999999E-7</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="16">
+      <c r="J28" s="19"/>
+      <c r="K28" s="18">
         <v>-2.8897789999999999E-3</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="26">
+      <c r="L28" s="19"/>
+      <c r="M28" s="28">
         <v>-0.56185580000000002</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="21">
+      <c r="N28" s="19"/>
+      <c r="O28" s="23">
         <v>1.516047E-4</v>
       </c>
-      <c r="P28" s="26"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="14"/>
-      <c r="B29" s="21">
+      <c r="A29" s="16"/>
+      <c r="B29" s="23">
         <v>8.7036000000000002E-2</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="18">
         <v>1.7061999999999999</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21">
         <v>-0.1962217</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="28">
         <v>-4.0349000000000004</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="16">
+      <c r="J29" s="19"/>
+      <c r="K29" s="18">
         <v>-1.8813</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="26">
+      <c r="L29" s="19"/>
+      <c r="M29" s="28">
         <v>-29.832999999999998</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="21">
+      <c r="N29" s="19"/>
+      <c r="O29" s="23">
         <v>4.5044000000000004</v>
       </c>
-      <c r="P29" s="26"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>11</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="23">
         <v>0.1718383</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="18">
         <v>8.9636439999999998E-2</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="37">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="39">
         <v>-1.440351E-7</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="16">
+      <c r="J31" s="19"/>
+      <c r="K31" s="18">
         <v>-2.2856360000000002E-3</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="36">
+      <c r="L31" s="19"/>
+      <c r="M31" s="38">
         <v>-0.57812569999999996</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="20">
+      <c r="N31" s="19"/>
+      <c r="O31" s="22">
         <v>9.9098829999999996E-5</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="38">
         <v>-4.9352439999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="14"/>
-      <c r="B32" s="21">
+      <c r="A32" s="16"/>
+      <c r="B32" s="23">
         <v>0.55696999999999997</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="40">
         <v>2.2705000000000002</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="38">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="40">
         <v>-4.0654000000000003</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="38">
+      <c r="J32" s="19"/>
+      <c r="K32" s="40">
         <v>-2.0701000000000001</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="38">
+      <c r="L32" s="19"/>
+      <c r="M32" s="40">
         <v>-27.256</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="38">
+      <c r="N32" s="19"/>
+      <c r="O32" s="40">
         <v>4.3573000000000004</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="38">
         <v>-3.7322000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:16" s="3" customFormat="1">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="14">
+      <c r="A34" s="16">
         <v>12</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="17"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="14">
+      <c r="A35" s="16">
         <v>13</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="17"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="19"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <v>14</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="17"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2328,51 +2331,51 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
-    <col min="2" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="8.1640625" style="4" customWidth="1"/>
+    <col min="2" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A1" s="45"/>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A1" s="47"/>
+      <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="66"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="41" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="42"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="17">
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A2" s="74" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A3" s="81" t="s">
         <v>18</v>
       </c>
@@ -2443,34 +2446,34 @@
       <c r="P3" s="84"/>
     </row>
     <row r="4" spans="1:16" ht="17">
-      <c r="A4" s="52">
+      <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="52">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="53">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="68"/>
-      <c r="K4" s="51">
+      <c r="K4" s="53">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="55">
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="57">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="52"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="A5" s="89"/>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="P5" s="89"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A6" s="84" t="s">
         <v>20</v>
       </c>
@@ -2521,34 +2524,34 @@
       <c r="P6" s="84"/>
     </row>
     <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="52">
+      <c r="A7" s="54">
         <v>2</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="52">
         <v>0.63930330000000002</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="53">
         <v>3.7481380000000002E-2</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56">
         <v>-2.4859949999999999E-2</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="68"/>
-      <c r="K7" s="51">
+      <c r="K7" s="53">
         <v>-3.397302E-3</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="55">
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="57">
         <v>3.4935360000000002E-5</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="59">
         <v>5.6649949999999998E-2</v>
       </c>
     </row>
@@ -2582,7 +2585,7 @@
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A9" s="84" t="s">
         <v>21</v>
       </c>
@@ -2603,104 +2606,104 @@
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="A10" s="52">
+      <c r="A10" s="54">
         <v>3</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="52">
         <v>0.58309230000000001</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="53">
         <v>1.7602739999999999</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="59">
         <v>-2.0966809999999998</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56">
         <v>-8.6146810000000004E-2</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="68"/>
-      <c r="K10" s="51">
+      <c r="K10" s="53">
         <v>-3.2992939999999999E-3</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="55">
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="57">
         <v>3.1172289999999999E-5</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="59">
         <v>-3.3278580000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50">
+      <c r="A11" s="54"/>
+      <c r="B11" s="52">
         <v>1.8604000000000001</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="53">
         <v>9.8452000000000002</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="59">
         <v>-9.9427000000000003</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56">
         <v>-0.80386000000000002</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="68"/>
-      <c r="K11" s="51">
+      <c r="K11" s="53">
         <v>-2.1934999999999998</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="56">
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="58">
         <v>2.3203</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="59">
         <v>2.4056000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>4</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="52">
         <v>-13.28279</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="53">
         <v>-2.3071160000000002</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="57">
+      <c r="D12" s="54"/>
+      <c r="E12" s="59">
         <v>1.0692980000000001</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="59">
         <v>53.045909999999999</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54">
+      <c r="G12" s="55"/>
+      <c r="H12" s="56">
         <v>1.181413</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="68"/>
-      <c r="K12" s="51">
+      <c r="K12" s="53">
         <v>7.2975189999999995E-2</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="56">
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="58">
         <v>4.8899759999999999E-3</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="59">
         <v>0.37545709999999999</v>
       </c>
     </row>
@@ -2738,7 +2741,7 @@
         <v>1.0659000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A14" s="84" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="P14" s="101"/>
     </row>
     <row r="15" spans="1:16" ht="17">
-      <c r="A15" s="52">
+      <c r="A15" s="54">
         <v>5</v>
       </c>
       <c r="B15" s="73">
@@ -2768,9 +2771,9 @@
       <c r="C15" s="65">
         <v>0.11502039999999999</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="64">
         <v>0.12972539999999999</v>
       </c>
@@ -2786,9 +2789,9 @@
       <c r="K15" s="65">
         <v>-9.8798799999999997E-4</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="62">
         <v>9.8271050000000009E-4</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>5.0848000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A17" s="84" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +2856,7 @@
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="1:16" ht="17">
-      <c r="A18" s="52">
+      <c r="A18" s="54">
         <v>6</v>
       </c>
       <c r="B18" s="73">
@@ -2862,11 +2865,11 @@
       <c r="C18" s="65">
         <v>0.1023022</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="59"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="70">
         <v>-1.6212819999999999E-7</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>4.3960999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A20" s="84" t="s">
         <v>29</v>
       </c>
@@ -2947,7 +2950,7 @@
       <c r="P20" s="84"/>
     </row>
     <row r="21" spans="1:16" ht="17">
-      <c r="A21" s="52">
+      <c r="A21" s="54">
         <v>7</v>
       </c>
       <c r="B21" s="73">
@@ -2956,21 +2959,21 @@
       <c r="C21" s="65">
         <v>8.3642850000000005E-2</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="70">
         <v>-1.5456030000000001E-7</v>
       </c>
       <c r="J21" s="68"/>
-      <c r="K21" s="51"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="72">
         <v>-0.95796840000000005</v>
       </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="52"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="63">
         <v>9.0674619999999995E-5</v>
       </c>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="22" spans="1:16" ht="17">
       <c r="A22" s="89"/>
-      <c r="B22" s="103">
+      <c r="B22" s="114">
         <v>2.3555000000000001</v>
       </c>
       <c r="C22" s="112">
@@ -3008,7 +3011,7 @@
         <v>4.1763000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" ht="17">
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="17">
       <c r="A23" s="84" t="s">
         <v>24</v>
       </c>
@@ -3029,7 +3032,7 @@
       <c r="P23" s="84"/>
     </row>
     <row r="24" spans="1:16" ht="17">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>9</v>
       </c>
       <c r="B24" s="73">
@@ -3038,10 +3041,10 @@
       <c r="C24" s="65">
         <v>7.8933660000000003E-2</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="69">
         <v>-0.16551009999999999</v>
       </c>
@@ -3055,8 +3058,8 @@
       <c r="L24" s="72">
         <v>-1.7419260000000001</v>
       </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="52"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="62">
         <v>1.1734129999999999E-4</v>
       </c>
@@ -3098,139 +3101,215 @@
         <v>4.3297999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="17">
+      <c r="A26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="67"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="1:16" ht="17">
-      <c r="A27" s="49">
+      <c r="A27" s="51">
         <v>12</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="1">
+        <v>0.56156660000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.3251090000000001E-2</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="1">
+        <v>2.5636780000000001E-2</v>
+      </c>
+      <c r="I27" s="54"/>
       <c r="J27" s="68"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="52"/>
+      <c r="K27" s="1">
+        <v>2.434108E-4</v>
+      </c>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="2">
+        <v>1.6710820000000001E-5</v>
+      </c>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" ht="17">
-      <c r="A28" s="49"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="52"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="1">
+        <v>1.6629</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.39307999999999998</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="1">
+        <v>0.13347999999999999</v>
+      </c>
+      <c r="I28" s="54"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="52"/>
+      <c r="K28" s="1">
+        <v>7.6509999999999995E-2</v>
+      </c>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="1">
+        <v>1.4115</v>
+      </c>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:16" ht="17">
-      <c r="A29" s="49">
+      <c r="A29" s="51">
         <v>13</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="52"/>
+      <c r="B29" s="1">
+        <v>0.35687190000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.3412232</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="2">
+        <v>-1.7021450000000001E-7</v>
+      </c>
       <c r="J29" s="68"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="52"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="1">
+        <v>0.58199420000000002</v>
+      </c>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="2">
+        <v>8.6349959999999995E-5</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6.9201890000000002E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="17">
-      <c r="A30" s="49"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="52"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="1">
+        <v>1.0976999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="1">
+        <v>-4.4256000000000002</v>
+      </c>
       <c r="J30" s="68"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="52"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="1">
+        <v>0.89705000000000001</v>
+      </c>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="1">
+        <v>4.0269000000000004</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3.5055999999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="17">
-      <c r="A31" s="49">
+      <c r="A31" s="51">
         <v>14</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="52"/>
+      <c r="B31" s="1">
+        <v>0.30650889999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.427145</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="1">
+        <v>0.26352740000000002</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-1.491856E-7</v>
+      </c>
       <c r="J31" s="68"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="52"/>
+      <c r="K31" s="1">
+        <v>3.2025920000000002E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-1.681095</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="2">
+        <v>9.536685E-5</v>
+      </c>
+      <c r="P31" s="1">
+        <v>7.2817209999999993E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="17">
-      <c r="A32" s="49"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="52"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="1">
+        <v>0.88619000000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.605</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="1">
+        <v>1.2458</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-2.7988</v>
+      </c>
       <c r="J32" s="68"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="52"/>
+      <c r="K32" s="1">
+        <v>1.0274000000000001</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-1.6837</v>
+      </c>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="1">
+        <v>2.4598</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3.2921999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3241,6 +3320,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07376E44-9E51-2D4B-92E9-60643971F7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7E3720-FEEA-E14F-82B8-1C071B426920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="185" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="18">
@@ -285,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -315,38 +314,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -363,10 +331,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -375,7 +363,77 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -390,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,208 +542,193 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="185" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="185" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,28 +1263,28 @@
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="39"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -2260,6 +2303,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2268,1018 +2312,994 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AF63D-4A2B-6C44-BA4E-AE541EEE8959}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="109" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1640625" style="97" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="97" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="97" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="97" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" style="97" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="97" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="97" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="54" customWidth="1"/>
+    <col min="3" max="4" width="14.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="54" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="54" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A1" s="31"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="49"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A2" s="34" t="s">
+      <c r="P1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18" thickBot="1">
+      <c r="A2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" thickTop="1">
+      <c r="A3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="58"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:16" ht="17">
-      <c r="A4" s="32">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="88">
         <v>0.62879130000000005</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="67">
         <v>3.6155180000000002E-2</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="37">
         <v>-4.5438249999999999E-2</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="63">
+      <c r="I4" s="36"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="67">
         <v>-3.6966339999999999E-3</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="68">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="56">
         <v>4.396825E-5</v>
       </c>
-      <c r="P4" s="64"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" ht="17">
-      <c r="A5" s="37"/>
-      <c r="B5" s="45">
+      <c r="A5" s="75"/>
+      <c r="B5" s="89">
         <v>4.4319999999999998E-2</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="68">
         <v>0.40029999999999999</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39">
         <v>0.7</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="72">
+      <c r="I5" s="38"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="39">
         <v>1.4080000000000001E-2</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="74">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="57">
         <v>2.1099999999999999E-3</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="61"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="58"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="17">
-      <c r="A7" s="32">
+      <c r="A7" s="74">
         <v>2</v>
       </c>
-      <c r="B7" s="43">
-        <v>0.63930330000000002</v>
-      </c>
-      <c r="C7" s="63">
-        <v>3.7481380000000002E-2</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66">
-        <v>-2.4859949999999999E-2</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="63">
-        <v>-3.397302E-3</v>
-      </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="68">
-        <v>3.4935360000000002E-5</v>
-      </c>
-      <c r="P7" s="78">
-        <v>5.6649949999999998E-2</v>
+      <c r="B7" s="89">
+        <v>0.63438629999999996</v>
+      </c>
+      <c r="C7" s="39">
+        <v>4.4460230000000003E-2</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="39">
+        <v>4.742642E-3</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="39">
+        <v>-3.215163E-3</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="40">
+        <v>3.4913200000000003E-5</v>
+      </c>
+      <c r="P7" s="43">
+        <v>9.6318889999999994E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17">
-      <c r="A8" s="37"/>
-      <c r="B8" s="45">
-        <v>4.4359999999999997E-2</v>
-      </c>
-      <c r="C8" s="69">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="72">
-        <v>2.4070000000000001E-2</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="74">
-        <v>1.0109999999999999E-2</v>
-      </c>
-      <c r="P8" s="79">
-        <v>9.9119999999999993E-7</v>
+      <c r="A8" s="75"/>
+      <c r="B8" s="89">
+        <v>4.6440000000000002E-2</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="39">
+        <v>3.2910000000000002E-2</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="40">
+        <v>9.7350000000000006E-3</v>
+      </c>
+      <c r="P8" s="43">
+        <v>4.5750000000000002E-10</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="80"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="17">
-      <c r="A10" s="32">
+      <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="43">
-        <v>0.58309230000000001</v>
-      </c>
-      <c r="C10" s="63">
-        <v>1.7602739999999999</v>
-      </c>
-      <c r="D10" s="78">
-        <v>-2.0966809999999998</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="66">
-        <v>-8.6146810000000004E-2</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="63">
-        <v>-3.2992939999999999E-3</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="68">
-        <v>3.1172289999999999E-5</v>
-      </c>
-      <c r="P10" s="78">
-        <v>-3.3278580000000002E-2</v>
+      <c r="B10" s="89">
+        <v>0.5955973</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1.695433</v>
+      </c>
+      <c r="D10" s="43">
+        <v>-2.0197859999999999</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="39">
+        <v>-5.9181770000000002E-2</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="39">
+        <v>-3.033914E-3</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="40">
+        <v>2.62926E-5</v>
+      </c>
+      <c r="P10" s="43">
+        <v>-1.3132129999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17">
-      <c r="A11" s="32"/>
-      <c r="B11" s="45">
-        <v>6.3469999999999999E-2</v>
-      </c>
-      <c r="C11" s="69" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="89">
+        <v>5.9020000000000003E-2</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="72">
-        <v>0.4219</v>
-      </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="72">
-        <v>2.877E-2</v>
-      </c>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="74">
-        <v>2.0760000000000001E-2</v>
-      </c>
-      <c r="P11" s="79">
-        <v>1.6539999999999999E-2</v>
+      <c r="E11" s="36"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="39">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="39">
+        <v>4.5130000000000003E-2</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="40">
+        <v>4.9669999999999999E-2</v>
+      </c>
+      <c r="P11" s="43">
+        <v>0.46129999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17">
-      <c r="A12" s="32">
+      <c r="A12" s="74">
         <v>4</v>
       </c>
-      <c r="B12" s="43">
-        <v>-13.28279</v>
-      </c>
-      <c r="C12" s="63">
-        <v>-2.3071160000000002</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="78">
-        <v>1.0692980000000001</v>
-      </c>
-      <c r="F12" s="78">
-        <v>53.045909999999999</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66">
-        <v>1.181413</v>
-      </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="63">
-        <v>7.2975189999999995E-2</v>
-      </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="68">
-        <v>4.8899759999999999E-3</v>
-      </c>
-      <c r="P12" s="78">
-        <v>0.37545709999999999</v>
+      <c r="B12" s="89">
+        <v>-1.7702929999999999</v>
+      </c>
+      <c r="C12" s="39">
+        <v>-1.7564649999999999</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="43">
+        <v>2.6436389999999999</v>
+      </c>
+      <c r="F12" s="64">
+        <v>7.1311099999999996</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="39">
+        <v>-1.6835770000000001</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="39">
+        <v>2.8377429999999999E-2</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="40">
+        <v>9.1819299999999998E-4</v>
+      </c>
+      <c r="P12" s="43">
+        <v>2.0708689999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33">
-        <v>0.35010000000000002</v>
-      </c>
-      <c r="C13" s="69">
-        <v>0.38090000000000002</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="79">
-        <v>0.41439999999999999</v>
-      </c>
-      <c r="F13" s="79">
-        <v>0.35439999999999999</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72">
-        <v>0.33589999999999998</v>
-      </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="74">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P13" s="79">
-        <v>0.28720000000000001</v>
+      <c r="A13" s="75"/>
+      <c r="B13" s="89">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="43">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="39">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="40">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="P13" s="43">
+        <v>0.41760000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="80"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="17">
-      <c r="A15" s="32">
+      <c r="A15" s="74">
         <v>5</v>
       </c>
-      <c r="B15" s="45">
-        <v>-32.767980000000001</v>
-      </c>
-      <c r="C15" s="69">
-        <v>0.11502039999999999</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="81">
-        <v>0.12972539999999999</v>
-      </c>
-      <c r="H15" s="72">
-        <v>-1.043667E-2</v>
-      </c>
-      <c r="I15" s="79">
-        <v>-2.803863E-6</v>
-      </c>
-      <c r="J15" s="82">
-        <v>-4.1300110000000003E-7</v>
-      </c>
-      <c r="K15" s="69">
-        <v>-9.8798799999999997E-4</v>
-      </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="83">
-        <v>9.8271050000000009E-4</v>
-      </c>
-      <c r="P15" s="79">
-        <v>6.6081219999999996E-2</v>
+      <c r="B15" s="89">
+        <v>-32.766159999999999</v>
+      </c>
+      <c r="C15" s="39">
+        <v>0.13423489999999999</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="43">
+        <v>0.1150751</v>
+      </c>
+      <c r="H15" s="39">
+        <v>-2.186239E-3</v>
+      </c>
+      <c r="I15" s="43">
+        <v>-3.1430600000000002E-6</v>
+      </c>
+      <c r="J15" s="64">
+        <v>-7.1226109999999997E-7</v>
+      </c>
+      <c r="K15" s="39">
+        <v>-6.8903230000000001E-4</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="40">
+        <v>1.110628E-3</v>
+      </c>
+      <c r="P15" s="43">
+        <v>1.0805739999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33">
+      <c r="A16" s="75"/>
+      <c r="B16" s="89">
         <v>0.3765</v>
       </c>
-      <c r="C16" s="69">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="81">
-        <v>4.956E-2</v>
-      </c>
-      <c r="H16" s="72">
-        <v>0.84050000000000002</v>
-      </c>
-      <c r="I16" s="79">
-        <v>5.4079999999999996E-3</v>
-      </c>
-      <c r="J16" s="79">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="K16" s="69">
-        <v>0.59509999999999996</v>
-      </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="74">
-        <v>3.5869999999999999E-3</v>
-      </c>
-      <c r="P16" s="84">
-        <v>5.6589999999999995E-7</v>
+      <c r="C16" s="39">
+        <v>8.3489999999999995E-2</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="43">
+        <v>8.1790000000000002E-2</v>
+      </c>
+      <c r="H16" s="39">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="I16" s="43">
+        <v>3.1879999999999999E-3</v>
+      </c>
+      <c r="J16" s="64">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="K16" s="39">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="40">
+        <v>1.2390000000000001E-3</v>
+      </c>
+      <c r="P16" s="43">
+        <v>3.2959999999999999E-8</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="80"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" ht="17">
-      <c r="A18" s="32">
+      <c r="A18" s="74">
         <v>6</v>
       </c>
-      <c r="B18" s="45">
-        <v>0.72894599999999998</v>
-      </c>
-      <c r="C18" s="69">
-        <v>2.4142440000000001E-2</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="81">
-        <v>0.1110597</v>
-      </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="79">
-        <v>-1.020957E-7</v>
-      </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="69">
-        <v>-4.566189E-3</v>
-      </c>
-      <c r="L18" s="79">
-        <v>-1.092733</v>
-      </c>
-      <c r="M18" s="79">
-        <v>3.1504699999999997E-2</v>
-      </c>
-      <c r="N18" s="79">
-        <v>-0.1210687</v>
-      </c>
-      <c r="O18" s="74">
-        <v>5.380988E-5</v>
-      </c>
-      <c r="P18" s="79">
-        <v>5.9551840000000002E-2</v>
+      <c r="B18" s="89">
+        <v>0.78301330000000002</v>
+      </c>
+      <c r="C18" s="39">
+        <v>2.298857E-2</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="43">
+        <v>-1.040389E-7</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="39">
+        <v>-3.5399509999999999E-3</v>
+      </c>
+      <c r="L18" s="43">
+        <v>-1.126328</v>
+      </c>
+      <c r="M18" s="43">
+        <v>3.554177E-2</v>
+      </c>
+      <c r="N18" s="64">
+        <v>-0.21144189999999999</v>
+      </c>
+      <c r="O18" s="40">
+        <v>5.6842539999999999E-5</v>
+      </c>
+      <c r="P18" s="43">
+        <v>9.8261609999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17">
-      <c r="A19" s="37"/>
-      <c r="B19" s="33">
-        <v>2.3650000000000001E-2</v>
-      </c>
-      <c r="C19" s="69">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="81">
-        <v>7.2579999999999997E-3</v>
-      </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="79">
-        <v>3.1930000000000001E-5</v>
-      </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="72">
-        <v>1.108E-2</v>
-      </c>
-      <c r="L19" s="79">
-        <v>3.2599999999999999E-3</v>
-      </c>
-      <c r="M19" s="79">
-        <v>1.3390000000000001E-2</v>
-      </c>
-      <c r="N19" s="79">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="O19" s="74">
-        <v>2.0890000000000001E-3</v>
-      </c>
-      <c r="P19" s="79">
-        <v>7.1699999999999997E-7</v>
+      <c r="A19" s="75"/>
+      <c r="B19" s="89">
+        <v>1.6080000000000001E-2</v>
+      </c>
+      <c r="C19" s="39">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="43">
+        <v>2.8019999999999999E-5</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="39">
+        <v>3.1730000000000001E-2</v>
+      </c>
+      <c r="L19" s="43">
+        <v>2.7460000000000002E-3</v>
+      </c>
+      <c r="M19" s="43">
+        <v>4.0029999999999996E-3</v>
+      </c>
+      <c r="N19" s="64">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="O19" s="40">
+        <v>1.2409999999999999E-3</v>
+      </c>
+      <c r="P19" s="43">
+        <v>3.0449999999999998E-10</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="58"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="61"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="58"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="17">
-      <c r="A21" s="32">
+      <c r="A21" s="74">
         <v>7</v>
       </c>
-      <c r="B21" s="45">
-        <v>0.77587660000000003</v>
-      </c>
-      <c r="C21" s="69">
-        <v>2.235877E-2</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="88">
-        <v>0.1104161</v>
-      </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="89">
-        <v>-1.00612E-7</v>
-      </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="89">
-        <v>-3.360848E-3</v>
-      </c>
-      <c r="L21" s="89">
-        <v>-1.247449</v>
-      </c>
-      <c r="M21" s="78"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="89">
-        <v>5.3238710000000003E-5</v>
-      </c>
-      <c r="P21" s="89">
-        <v>4.7563929999999997E-2</v>
+      <c r="B21" s="89">
+        <v>0.81238440000000001</v>
+      </c>
+      <c r="C21" s="39">
+        <v>2.3522370000000001E-2</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="62"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="50">
+        <v>-1.062793E-7</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="50">
+        <v>-3.038982E-3</v>
+      </c>
+      <c r="L21" s="50">
+        <v>-1.3168070000000001</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="50">
+        <v>5.7321000000000002E-5</v>
+      </c>
+      <c r="P21" s="50">
+        <v>8.3500859999999996E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17">
-      <c r="A22" s="37"/>
-      <c r="B22" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C22" s="69">
-        <v>0.4284</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="88">
-        <v>3.8920000000000001E-3</v>
-      </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="89">
-        <v>4.1029999999999998E-5</v>
-      </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="89">
-        <v>5.2649999999999997E-3</v>
-      </c>
-      <c r="L22" s="89">
-        <v>3.8959999999999998E-4</v>
-      </c>
-      <c r="M22" s="90"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="89">
-        <v>2.4320000000000001E-3</v>
-      </c>
-      <c r="P22" s="89">
-        <v>8.1189999999999997E-6</v>
+      <c r="A22" s="75"/>
+      <c r="B22" s="89">
+        <v>1.158E-2</v>
+      </c>
+      <c r="C22" s="39">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="63"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50">
+        <v>2.1610000000000001E-5</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="50">
+        <v>4.9789999999999999E-3</v>
+      </c>
+      <c r="L22" s="50">
+        <v>1.526E-4</v>
+      </c>
+      <c r="M22" s="51"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="50">
+        <v>1.178E-3</v>
+      </c>
+      <c r="P22" s="50">
+        <v>1.5090000000000001E-9</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="58"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="61"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="58"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="17">
-      <c r="A24" s="32">
+      <c r="A24" s="74">
         <v>9</v>
       </c>
-      <c r="B24" s="33">
-        <v>0.60950749999999998</v>
-      </c>
-      <c r="C24" s="69">
-        <v>8.112374E-2</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="81">
-        <v>0.1876583</v>
-      </c>
-      <c r="H24" s="72">
-        <v>-0.1745256</v>
-      </c>
-      <c r="I24" s="79">
-        <v>-1.3035149999999999E-7</v>
-      </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="72">
-        <v>-2.8067370000000001E-3</v>
-      </c>
-      <c r="L24" s="79">
-        <v>-1.763863</v>
-      </c>
-      <c r="M24" s="78"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="74">
-        <v>1.01538E-4</v>
-      </c>
-      <c r="P24" s="79">
-        <v>5.096871E-2</v>
+      <c r="B24" s="89">
+        <v>0.60763789999999995</v>
+      </c>
+      <c r="C24" s="39">
+        <v>8.8479299999999997E-2</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="39">
+        <v>-0.13419990000000001</v>
+      </c>
+      <c r="I24" s="43">
+        <v>-1.53667E-7</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="39">
+        <v>-1.969391E-3</v>
+      </c>
+      <c r="L24" s="43">
+        <v>-1.782036</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="40">
+        <v>1.167646E-4</v>
+      </c>
+      <c r="P24" s="43">
+        <v>9.1319810000000008E-3</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33">
-        <v>6.182E-2</v>
-      </c>
-      <c r="C25" s="69">
-        <v>6.8140000000000006E-2</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="81">
-        <v>1.13E-4</v>
-      </c>
-      <c r="H25" s="72">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="I25" s="79">
-        <v>8.9189999999999998E-3</v>
-      </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="72">
-        <v>0.1022</v>
-      </c>
-      <c r="L25" s="79">
-        <v>3.6910000000000003E-4</v>
-      </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="74">
-        <v>8.0330000000000002E-3</v>
-      </c>
-      <c r="P25" s="79">
-        <v>6.0989999999999997E-5</v>
+      <c r="A25" s="75"/>
+      <c r="B25" s="92">
+        <v>6.5619999999999998E-2</v>
+      </c>
+      <c r="C25" s="83">
+        <v>4.5969999999999997E-2</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="83">
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="I25" s="46">
+        <v>4.5859999999999998E-4</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="83">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="L25" s="46">
+        <v>3.9849999999999998E-4</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="93">
+        <v>5.7720000000000004E-4</v>
+      </c>
+      <c r="P25" s="46">
+        <v>2.693E-8</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="1" customFormat="1" ht="17">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="92"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" ht="17">
-      <c r="A27" s="32">
+      <c r="A27" s="74">
         <v>12</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="89">
         <v>0.56156660000000003</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="68">
         <v>5.3251090000000001E-2</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="72">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="39">
         <v>2.5636780000000001E-2</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="72">
+      <c r="I27" s="36"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="39">
         <v>2.434108E-4</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="83">
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="57">
         <v>1.6710820000000001E-5</v>
       </c>
-      <c r="P27" s="64"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" spans="1:16" ht="17">
-      <c r="A28" s="32"/>
-      <c r="B28" s="45">
+      <c r="A28" s="74"/>
+      <c r="B28" s="89">
         <v>1.6629</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="68">
         <v>0.39307999999999998</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="72">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="39">
         <v>0.13347999999999999</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="72">
+      <c r="I28" s="36"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="39">
         <v>7.6509999999999995E-2</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="83">
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="57">
         <v>1.4115</v>
       </c>
-      <c r="P28" s="64"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="1:16" ht="17">
-      <c r="A29" s="32">
+      <c r="A29" s="74">
         <v>13</v>
       </c>
-      <c r="B29" s="33">
-        <v>0.29468899999999998</v>
-      </c>
-      <c r="C29" s="88">
-        <v>0.27806579999999997</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="81">
-        <v>9.6233959999999993E-2</v>
-      </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="89">
-        <v>-1.174393E-7</v>
-      </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="72">
-        <v>3.232249E-3</v>
-      </c>
-      <c r="L29" s="79">
-        <v>0.3482614</v>
-      </c>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="89">
-        <v>5.867951E-5</v>
-      </c>
-      <c r="P29" s="89">
-        <v>7.1686910000000006E-2</v>
+      <c r="B29" s="89">
+        <v>0.38068370000000001</v>
+      </c>
+      <c r="C29" s="50">
+        <v>0.25986759999999998</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="50">
+        <v>-1.224583E-7</v>
+      </c>
+      <c r="J29" s="62"/>
+      <c r="K29" s="39">
+        <v>3.153524E-3</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0.2574477</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="50">
+        <v>6.0931550000000001E-5</v>
+      </c>
+      <c r="P29" s="50">
+        <v>9.6610659999999994E-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="C30" s="88">
-        <v>2.2960000000000001E-2</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="81">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="89">
-        <v>6.497E-7</v>
-      </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="72">
+      <c r="A30" s="74"/>
+      <c r="B30" s="89">
+        <v>0.2341</v>
+      </c>
+      <c r="C30" s="50">
+        <v>3.2390000000000002E-2</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="50">
+        <v>1.089E-7</v>
+      </c>
+      <c r="J30" s="62"/>
+      <c r="K30" s="39">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="50">
+        <v>6.6840000000000004E-5</v>
+      </c>
+      <c r="P30" s="50">
+        <v>9.1279999999999993E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17">
+      <c r="A31" s="74">
+        <v>14</v>
+      </c>
+      <c r="B31" s="89">
+        <v>0.32773720000000001</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.43945190000000001</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="39">
+        <v>0.29910609999999999</v>
+      </c>
+      <c r="I31" s="43">
+        <v>-1.5182239999999999E-7</v>
+      </c>
+      <c r="J31" s="62"/>
+      <c r="K31" s="39">
+        <v>2.6416819999999998E-3</v>
+      </c>
+      <c r="L31" s="43">
+        <v>-1.7450319999999999</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="40">
+        <v>9.8405580000000004E-5</v>
+      </c>
+      <c r="P31" s="43">
+        <v>9.3745519999999995E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17">
+      <c r="A32" s="74"/>
+      <c r="B32" s="89">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="C32" s="39">
+        <v>7.8139999999999998E-3</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="39">
         <v>0.1799</v>
       </c>
-      <c r="L30" s="79">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="89">
-        <v>2.0330000000000001E-4</v>
-      </c>
-      <c r="P30" s="89">
-        <v>1.896E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="17">
-      <c r="A31" s="32">
-        <v>14</v>
-      </c>
-      <c r="B31" s="33">
-        <v>0.2240366</v>
-      </c>
-      <c r="C31" s="69">
-        <v>0.5244067</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="81">
-        <v>0.10911750000000001</v>
-      </c>
-      <c r="H31" s="72">
-        <v>0.53500709999999996</v>
-      </c>
-      <c r="I31" s="79">
-        <v>-1.5928119999999999E-7</v>
-      </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="72">
-        <v>2.3763450000000002E-3</v>
-      </c>
-      <c r="L31" s="79">
-        <v>-1.453395</v>
-      </c>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="74">
-        <v>9.9323490000000005E-5</v>
-      </c>
-      <c r="P31" s="79">
-        <v>7.1452399999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="C32" s="69">
-        <v>2.8249999999999998E-3</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="81">
-        <v>0.1217</v>
-      </c>
-      <c r="H32" s="72">
-        <v>3.3869999999999997E-2</v>
-      </c>
-      <c r="I32" s="79">
-        <v>7.4939999999999998E-3</v>
-      </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="72">
-        <v>0.46939999999999998</v>
-      </c>
-      <c r="L32" s="79">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="74">
-        <v>1.7270000000000001E-2</v>
-      </c>
-      <c r="P32" s="79">
-        <v>1.74E-3</v>
+      <c r="I32" s="43">
+        <v>4.2770000000000004E-3</v>
+      </c>
+      <c r="J32" s="62"/>
+      <c r="K32" s="39">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="L32" s="43">
+        <v>8.6790000000000006E-2</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="40">
+        <v>1.103E-2</v>
+      </c>
+      <c r="P32" s="43">
+        <v>1.0690000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3311,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hanauer/Result.xlsx
+++ b/Hanauer/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouziyang/Documents/Academic/TUM/Study/Management/Empirical Asset Pricing/repo/SS23_Empirical-Asset-Pricing/Hanauer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7E3720-FEEA-E14F-82B8-1C071B426920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B83F34-7586-D54F-9982-0AE7D52281DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17900" activeTab="1" xr2:uid="{D2C52638-F17C-BC40-A5F8-F50DF70C4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="109" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K24" activeCellId="3" sqref="C2:C28 C31:C32 K4:K19 K24:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
